--- a/Dic_GeoCodes.xlsx
+++ b/Dic_GeoCodes.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -474,6 +474,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -487,6 +488,11 @@
           <t>Bezeichnung</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>ANr</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4">
@@ -497,6 +503,11 @@
           <t>Flensburg, Stadt</t>
         </is>
       </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_365</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4">
@@ -507,6 +518,11 @@
           <t>Kiel, Stadt</t>
         </is>
       </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_366</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4">
@@ -517,6 +533,11 @@
           <t>Lübeck, Stadt</t>
         </is>
       </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_367</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4">
@@ -527,6 +548,11 @@
           <t>Neumünster, Stadt</t>
         </is>
       </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_368</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4">
@@ -537,6 +563,11 @@
           <t>Dithmarschen</t>
         </is>
       </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_369</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4">
@@ -547,6 +578,11 @@
           <t>Herzogtum Lauenburg</t>
         </is>
       </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_370</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4">
@@ -557,6 +593,11 @@
           <t>Nordfriesland</t>
         </is>
       </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_371</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4">
@@ -567,6 +608,11 @@
           <t>Ostholstein</t>
         </is>
       </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_372</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4">
@@ -577,6 +623,11 @@
           <t>Pinneberg</t>
         </is>
       </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_373</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4">
@@ -587,6 +638,11 @@
           <t>Plön</t>
         </is>
       </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_374</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4">
@@ -597,6 +653,11 @@
           <t>Rendsburg-Eckernförde</t>
         </is>
       </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_375</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4">
@@ -607,6 +668,11 @@
           <t>Schleswig-Flensburg</t>
         </is>
       </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_376</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4">
@@ -617,6 +683,11 @@
           <t>Segeberg</t>
         </is>
       </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_377</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4">
@@ -627,6 +698,11 @@
           <t>Steinburg</t>
         </is>
       </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_378</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4">
@@ -637,6 +713,11 @@
           <t>Stormarn</t>
         </is>
       </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_379</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4">
@@ -647,6 +728,11 @@
           <t>Hamburg</t>
         </is>
       </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_162</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4">
@@ -657,6 +743,11 @@
           <t>Braunschweig, Stadt</t>
         </is>
       </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_197</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4">
@@ -667,6 +758,11 @@
           <t>Salzgitter, Stadt</t>
         </is>
       </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_198</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4">
@@ -677,6 +773,11 @@
           <t>Wolfsburg, Stadt</t>
         </is>
       </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_199</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4">
@@ -687,6 +788,11 @@
           <t>Gifhorn</t>
         </is>
       </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_200</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4">
@@ -697,6 +803,11 @@
           <t>Goslar</t>
         </is>
       </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_201</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4">
@@ -707,6 +818,11 @@
           <t>Helmstedt</t>
         </is>
       </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_202</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4">
@@ -717,6 +833,11 @@
           <t>Northeim</t>
         </is>
       </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_203</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
@@ -727,6 +848,11 @@
           <t>Peine</t>
         </is>
       </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_205</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
@@ -737,6 +863,11 @@
           <t>Wolfenbüttel</t>
         </is>
       </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_206</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
@@ -747,6 +878,11 @@
           <t>Göttingen</t>
         </is>
       </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_207</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
@@ -757,6 +893,11 @@
           <t>Region Hannover</t>
         </is>
       </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_208</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
@@ -767,6 +908,11 @@
           <t>Diepholz</t>
         </is>
       </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_209</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
@@ -777,6 +923,11 @@
           <t>Hameln-Pyrmont</t>
         </is>
       </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_210</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
@@ -787,6 +938,11 @@
           <t>Hildesheim</t>
         </is>
       </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_211</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
@@ -797,6 +953,11 @@
           <t>Holzminden</t>
         </is>
       </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_212</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
@@ -807,6 +968,11 @@
           <t>Nienburg (Weser)</t>
         </is>
       </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_213</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
@@ -817,6 +983,11 @@
           <t>Schaumburg</t>
         </is>
       </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_214</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
@@ -827,6 +998,11 @@
           <t>Celle</t>
         </is>
       </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_215</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
@@ -837,6 +1013,11 @@
           <t>Cuxhaven</t>
         </is>
       </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_216</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
@@ -847,6 +1028,11 @@
           <t>Harburg</t>
         </is>
       </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_217</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
@@ -857,6 +1043,11 @@
           <t>Lüchow-Dannenberg</t>
         </is>
       </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_218</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
@@ -867,6 +1058,11 @@
           <t>Lüneburg</t>
         </is>
       </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_219</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4">
@@ -877,6 +1073,11 @@
           <t>Osterholz</t>
         </is>
       </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_220</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4">
@@ -887,6 +1088,11 @@
           <t>Rotenburg (Wümme)</t>
         </is>
       </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_221</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4">
@@ -897,6 +1103,11 @@
           <t>Heidekreis</t>
         </is>
       </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_222</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4">
@@ -907,6 +1118,11 @@
           <t>Stade</t>
         </is>
       </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_223</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4">
@@ -917,6 +1133,11 @@
           <t>Uelzen</t>
         </is>
       </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_224</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4">
@@ -927,6 +1148,11 @@
           <t>Verden</t>
         </is>
       </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_225</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4">
@@ -937,6 +1163,11 @@
           <t>Delmenhorst, Stadt</t>
         </is>
       </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_226</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4">
@@ -947,6 +1178,11 @@
           <t>Emden, Stadt</t>
         </is>
       </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_227</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4">
@@ -957,6 +1193,11 @@
           <t>Oldenburg (Oldenburg), Stadt</t>
         </is>
       </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_228</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4">
@@ -967,6 +1208,11 @@
           <t>Osnabrück, Stadt</t>
         </is>
       </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_229</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4">
@@ -977,6 +1223,11 @@
           <t>Wilhelmshaven, Stadt</t>
         </is>
       </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_230</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4">
@@ -987,6 +1238,11 @@
           <t>Ammerland</t>
         </is>
       </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_231</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4">
@@ -997,6 +1253,11 @@
           <t>Aurich</t>
         </is>
       </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_232</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4">
@@ -1007,6 +1268,11 @@
           <t>Cloppenburg</t>
         </is>
       </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_233</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4">
@@ -1017,6 +1283,11 @@
           <t>Emsland</t>
         </is>
       </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_234</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4">
@@ -1027,6 +1298,11 @@
           <t>Friesland</t>
         </is>
       </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_235</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4">
@@ -1037,6 +1313,11 @@
           <t>Grafschaft Bentheim</t>
         </is>
       </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_236</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4">
@@ -1047,6 +1328,11 @@
           <t>Leer</t>
         </is>
       </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_237</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4">
@@ -1057,6 +1343,11 @@
           <t>Oldenburg</t>
         </is>
       </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_238</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4">
@@ -1067,6 +1358,11 @@
           <t>Osnabrück</t>
         </is>
       </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_239</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4">
@@ -1077,6 +1373,11 @@
           <t>Vechta</t>
         </is>
       </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_240</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4">
@@ -1087,6 +1388,11 @@
           <t>Wesermarsch</t>
         </is>
       </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_241</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4">
@@ -1097,6 +1403,11 @@
           <t>Wittmund</t>
         </is>
       </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_242</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4">
@@ -1107,6 +1418,11 @@
           <t>Bremen, Stadt</t>
         </is>
       </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_160</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4">
@@ -1117,6 +1433,11 @@
           <t>Bremerhaven, Stadt</t>
         </is>
       </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_161</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4">
@@ -1127,6 +1448,11 @@
           <t>Düsseldorf, Stadt</t>
         </is>
       </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_243</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4">
@@ -1137,6 +1463,11 @@
           <t>Duisburg, Stadt</t>
         </is>
       </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_244</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4">
@@ -1147,6 +1478,11 @@
           <t>Essen, Stadt</t>
         </is>
       </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_245</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4">
@@ -1157,6 +1493,11 @@
           <t>Krefeld, Stadt</t>
         </is>
       </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_246</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4">
@@ -1167,6 +1508,11 @@
           <t>Mönchengladbach, Stadt</t>
         </is>
       </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_247</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4">
@@ -1177,6 +1523,11 @@
           <t>Mülheim an der Ruhr, Stadt</t>
         </is>
       </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_248</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4">
@@ -1187,6 +1538,11 @@
           <t>Oberhausen, Stadt</t>
         </is>
       </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_249</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4">
@@ -1197,6 +1553,11 @@
           <t>Remscheid, Stadt</t>
         </is>
       </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_250</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4">
@@ -1207,6 +1568,11 @@
           <t>Solingen, Stadt</t>
         </is>
       </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_251</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4">
@@ -1217,6 +1583,11 @@
           <t>Wuppertal, Stadt</t>
         </is>
       </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_252</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4">
@@ -1227,6 +1598,11 @@
           <t>Kleve</t>
         </is>
       </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_253</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4">
@@ -1237,6 +1613,11 @@
           <t>Mettmann</t>
         </is>
       </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_254</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4">
@@ -1247,6 +1628,11 @@
           <t>Rhein-Kreis Neuss</t>
         </is>
       </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_255</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4">
@@ -1257,6 +1643,11 @@
           <t>Viersen</t>
         </is>
       </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_256</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4">
@@ -1267,6 +1658,11 @@
           <t>Wesel</t>
         </is>
       </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_257</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4">
@@ -1277,6 +1673,11 @@
           <t>Bonn, Stadt</t>
         </is>
       </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_258</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4">
@@ -1287,6 +1688,11 @@
           <t>Köln, Stadt</t>
         </is>
       </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_259</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4">
@@ -1297,6 +1703,11 @@
           <t>Leverkusen, Stadt</t>
         </is>
       </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_260</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4">
@@ -1307,6 +1718,11 @@
           <t>Städteregion Aachen</t>
         </is>
       </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_261</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4">
@@ -1317,6 +1733,11 @@
           <t>Düren</t>
         </is>
       </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_262</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4">
@@ -1327,6 +1748,11 @@
           <t>Rhein-Erft-Kreis</t>
         </is>
       </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_263</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4">
@@ -1337,6 +1763,11 @@
           <t>Euskirchen</t>
         </is>
       </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_264</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4">
@@ -1347,6 +1778,11 @@
           <t>Heinsberg</t>
         </is>
       </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_265</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4">
@@ -1357,6 +1793,11 @@
           <t>Oberbergischer Kreis</t>
         </is>
       </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_266</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4">
@@ -1367,6 +1808,11 @@
           <t>Rheinisch-Bergischer Kreis</t>
         </is>
       </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_267</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4">
@@ -1377,6 +1823,11 @@
           <t>Rhein-Sieg-Kreis</t>
         </is>
       </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_268</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4">
@@ -1387,6 +1838,11 @@
           <t>Bottrop, Stadt</t>
         </is>
       </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_269</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4">
@@ -1397,6 +1853,11 @@
           <t>Gelsenkirchen, Stadt</t>
         </is>
       </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_270</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4">
@@ -1407,6 +1868,11 @@
           <t>Münster, Stadt</t>
         </is>
       </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_271</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4">
@@ -1417,6 +1883,11 @@
           <t>Borken</t>
         </is>
       </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_272</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4">
@@ -1427,6 +1898,11 @@
           <t>Coesfeld</t>
         </is>
       </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_273</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4">
@@ -1437,6 +1913,11 @@
           <t>Recklinghausen</t>
         </is>
       </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_274</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4">
@@ -1447,6 +1928,11 @@
           <t>Steinfurt</t>
         </is>
       </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_275</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4">
@@ -1457,6 +1943,11 @@
           <t>Warendorf</t>
         </is>
       </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_276</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4">
@@ -1467,6 +1958,11 @@
           <t>Bielefeld, Stadt</t>
         </is>
       </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_277</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4">
@@ -1477,6 +1973,11 @@
           <t>Gütersloh</t>
         </is>
       </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_278</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4">
@@ -1487,6 +1988,11 @@
           <t>Herford</t>
         </is>
       </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_279</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4">
@@ -1497,6 +2003,11 @@
           <t>Höxter</t>
         </is>
       </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_280</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4">
@@ -1507,6 +2018,11 @@
           <t>Lippe</t>
         </is>
       </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_281</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4">
@@ -1517,6 +2033,11 @@
           <t>Minden-Lübbecke</t>
         </is>
       </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_282</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4">
@@ -1527,6 +2048,11 @@
           <t>Paderborn</t>
         </is>
       </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_283</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4">
@@ -1537,6 +2063,11 @@
           <t>Bochum, Stadt</t>
         </is>
       </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_284</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4">
@@ -1547,6 +2078,11 @@
           <t>Dortmund, Stadt</t>
         </is>
       </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_285</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4">
@@ -1557,6 +2093,11 @@
           <t>Hagen, Stadt</t>
         </is>
       </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_286</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4">
@@ -1567,6 +2108,11 @@
           <t>Hamm, Stadt</t>
         </is>
       </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_287</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4">
@@ -1577,6 +2123,11 @@
           <t>Herne, Stadt</t>
         </is>
       </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_288</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4">
@@ -1587,6 +2138,11 @@
           <t>Ennepe-Ruhr-Kreis</t>
         </is>
       </c>
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_289</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4">
@@ -1597,6 +2153,11 @@
           <t>Hochsauerlandkreis</t>
         </is>
       </c>
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_290</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4">
@@ -1607,6 +2168,11 @@
           <t>Märkischer Kreis</t>
         </is>
       </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_291</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4">
@@ -1617,6 +2183,11 @@
           <t>Olpe</t>
         </is>
       </c>
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_292</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4">
@@ -1627,6 +2198,11 @@
           <t>Siegen-Wittgenstein</t>
         </is>
       </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_293</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4">
@@ -1637,6 +2213,11 @@
           <t>Soest</t>
         </is>
       </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_294</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4">
@@ -1647,6 +2228,11 @@
           <t>Unna</t>
         </is>
       </c>
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_295</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4">
@@ -1657,6 +2243,11 @@
           <t>Darmstadt, Stadt</t>
         </is>
       </c>
+      <c r="C118" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_163</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4">
@@ -1667,6 +2258,11 @@
           <t>Frankfurt am Main, Stadt</t>
         </is>
       </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_164</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4">
@@ -1677,6 +2273,11 @@
           <t>Offenbach am Main, Stadt</t>
         </is>
       </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_165</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4">
@@ -1687,6 +2288,11 @@
           <t>Wiesbaden, Stadt</t>
         </is>
       </c>
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_166</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4">
@@ -1697,6 +2303,11 @@
           <t>Bergstraße</t>
         </is>
       </c>
+      <c r="C122" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_167</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4">
@@ -1707,6 +2318,11 @@
           <t>Darmstadt-Dieburg</t>
         </is>
       </c>
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_168</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4">
@@ -1717,6 +2333,11 @@
           <t>Groß-Gerau</t>
         </is>
       </c>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_169</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4">
@@ -1727,6 +2348,11 @@
           <t>Hochtaunuskreis</t>
         </is>
       </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_170</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4">
@@ -1737,6 +2363,11 @@
           <t>Main-Kinzig-Kreis</t>
         </is>
       </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_171</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4">
@@ -1747,6 +2378,11 @@
           <t>Main-Taunus-Kreis</t>
         </is>
       </c>
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_172</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4">
@@ -1757,6 +2393,11 @@
           <t>Odenwaldkreis</t>
         </is>
       </c>
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_173</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4">
@@ -1767,6 +2408,11 @@
           <t>Offenbach</t>
         </is>
       </c>
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_174</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4">
@@ -1777,6 +2423,11 @@
           <t>Rheingau-Taunus-Kreis</t>
         </is>
       </c>
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_175</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4">
@@ -1787,6 +2438,11 @@
           <t>Wetteraukreis</t>
         </is>
       </c>
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_176</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4">
@@ -1797,6 +2453,11 @@
           <t>Gießen</t>
         </is>
       </c>
+      <c r="C132" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_177</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4">
@@ -1807,6 +2468,11 @@
           <t>Lahn-Dill-Kreis</t>
         </is>
       </c>
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_178</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4">
@@ -1817,6 +2483,11 @@
           <t>Limburg-Weilburg</t>
         </is>
       </c>
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_179</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4">
@@ -1827,6 +2498,11 @@
           <t>Marburg-Biedenkopf</t>
         </is>
       </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_180</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4">
@@ -1837,6 +2513,11 @@
           <t>Vogelsbergkreis</t>
         </is>
       </c>
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_181</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4">
@@ -1847,6 +2528,11 @@
           <t>Kassel, Stadt</t>
         </is>
       </c>
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_182</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4">
@@ -1857,6 +2543,11 @@
           <t>Fulda</t>
         </is>
       </c>
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_183</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4">
@@ -1867,6 +2558,11 @@
           <t>Hersfeld-Rotenburg</t>
         </is>
       </c>
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_184</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4">
@@ -1877,6 +2573,11 @@
           <t>Kassel</t>
         </is>
       </c>
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_185</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4">
@@ -1887,6 +2588,11 @@
           <t>Schwalm-Eder-Kreis</t>
         </is>
       </c>
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_186</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4">
@@ -1897,6 +2603,11 @@
           <t>Waldeck-Frankenberg</t>
         </is>
       </c>
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_187</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4">
@@ -1907,6 +2618,11 @@
           <t>Werra-Meißner-Kreis</t>
         </is>
       </c>
+      <c r="C143" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_188</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4">
@@ -1917,6 +2633,11 @@
           <t>Koblenz, Stadt</t>
         </is>
       </c>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_296</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4">
@@ -1927,6 +2648,11 @@
           <t>Ahrweiler</t>
         </is>
       </c>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_297</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4">
@@ -1937,6 +2663,11 @@
           <t>Altenkirchen (Westerwald)</t>
         </is>
       </c>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_298</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4">
@@ -1947,6 +2678,11 @@
           <t>Bad Kreuznach</t>
         </is>
       </c>
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_299</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4">
@@ -1957,6 +2693,11 @@
           <t>Birkenfeld</t>
         </is>
       </c>
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_300</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4">
@@ -1967,6 +2708,11 @@
           <t>Cochem-Zell</t>
         </is>
       </c>
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_301</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4">
@@ -1977,6 +2723,11 @@
           <t>Mayen-Koblenz</t>
         </is>
       </c>
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_302</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4">
@@ -1987,6 +2738,11 @@
           <t>Neuwied</t>
         </is>
       </c>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_303</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4">
@@ -1997,6 +2753,11 @@
           <t>Rhein-Hunsrück-Kreis</t>
         </is>
       </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_304</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4">
@@ -2007,6 +2768,11 @@
           <t>Rhein-Lahn-Kreis</t>
         </is>
       </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_305</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4">
@@ -2017,6 +2783,11 @@
           <t>Westerwaldkreis</t>
         </is>
       </c>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_306</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4">
@@ -2027,6 +2798,11 @@
           <t>Trier, Stadt</t>
         </is>
       </c>
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_307</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4">
@@ -2037,6 +2813,11 @@
           <t>Bernkastel-Wittlich</t>
         </is>
       </c>
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_308</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4">
@@ -2047,6 +2828,11 @@
           <t>Eifelkreis Bitburg-Prüm</t>
         </is>
       </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_309</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4">
@@ -2057,6 +2843,11 @@
           <t>Vulkaneifel</t>
         </is>
       </c>
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_310</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4">
@@ -2067,6 +2858,11 @@
           <t>Trier-Saarburg</t>
         </is>
       </c>
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_311</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4">
@@ -2077,6 +2873,11 @@
           <t>Frankenthal (Pfalz), Stadt</t>
         </is>
       </c>
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_312</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4">
@@ -2087,6 +2888,11 @@
           <t>Kaiserslautern, Stadt</t>
         </is>
       </c>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_313</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4">
@@ -2097,6 +2903,11 @@
           <t>Landau in der Pfalz, Stadt</t>
         </is>
       </c>
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_314</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4">
@@ -2107,6 +2918,11 @@
           <t>Ludwigshafen am Rhein, Stadt</t>
         </is>
       </c>
+      <c r="C163" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_315</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4">
@@ -2117,6 +2933,11 @@
           <t>Mainz, Stadt</t>
         </is>
       </c>
+      <c r="C164" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_316</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4">
@@ -2127,6 +2948,11 @@
           <t>Neustadt an der Weinstraße, Stadt</t>
         </is>
       </c>
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_317</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4">
@@ -2137,6 +2963,11 @@
           <t>Pirmasens, Stadt</t>
         </is>
       </c>
+      <c r="C166" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_318</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4">
@@ -2147,6 +2978,11 @@
           <t>Speyer, Stadt</t>
         </is>
       </c>
+      <c r="C167" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_319</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4">
@@ -2157,6 +2993,11 @@
           <t>Worms, Stadt</t>
         </is>
       </c>
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_320</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4">
@@ -2167,6 +3008,11 @@
           <t>Zweibrücken, Stadt</t>
         </is>
       </c>
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_321</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4">
@@ -2177,6 +3023,11 @@
           <t>Alzey-Worms</t>
         </is>
       </c>
+      <c r="C170" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_322</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4">
@@ -2187,6 +3038,11 @@
           <t>Bad Dürkheim</t>
         </is>
       </c>
+      <c r="C171" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_323</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4">
@@ -2197,6 +3053,11 @@
           <t>Donnersbergkreis</t>
         </is>
       </c>
+      <c r="C172" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_324</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4">
@@ -2207,6 +3068,11 @@
           <t>Germersheim</t>
         </is>
       </c>
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_325</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4">
@@ -2217,6 +3083,11 @@
           <t>Kaiserslautern</t>
         </is>
       </c>
+      <c r="C174" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_326</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4">
@@ -2227,6 +3098,11 @@
           <t>Kusel</t>
         </is>
       </c>
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_327</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4">
@@ -2237,6 +3113,11 @@
           <t>Südliche Weinstraße</t>
         </is>
       </c>
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_328</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4">
@@ -2247,6 +3128,11 @@
           <t>Rhein-Pfalz-Kreis</t>
         </is>
       </c>
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_329</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4">
@@ -2257,6 +3143,11 @@
           <t>Mainz-Bingen</t>
         </is>
       </c>
+      <c r="C178" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_330</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4">
@@ -2267,6 +3158,11 @@
           <t>Südwestpfalz</t>
         </is>
       </c>
+      <c r="C179" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_331</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4">
@@ -2277,6 +3173,11 @@
           <t>Stuttgart, Stadt</t>
         </is>
       </c>
+      <c r="C180" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_001</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4">
@@ -2287,6 +3188,11 @@
           <t>Böblingen</t>
         </is>
       </c>
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_002</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4">
@@ -2297,6 +3203,11 @@
           <t>Esslingen</t>
         </is>
       </c>
+      <c r="C182" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_003</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4">
@@ -2307,6 +3218,11 @@
           <t>Göppingen</t>
         </is>
       </c>
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_004</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4">
@@ -2317,6 +3233,11 @@
           <t>Ludwigsburg</t>
         </is>
       </c>
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_005</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="4">
@@ -2327,6 +3248,11 @@
           <t>Rems-Murr-Kreis</t>
         </is>
       </c>
+      <c r="C185" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_006</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="4">
@@ -2337,6 +3263,11 @@
           <t>Heilbronn, Stadt</t>
         </is>
       </c>
+      <c r="C186" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_007</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="4">
@@ -2347,6 +3278,11 @@
           <t>Heilbronn</t>
         </is>
       </c>
+      <c r="C187" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_008</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="4">
@@ -2357,6 +3293,11 @@
           <t>Hohenlohekreis</t>
         </is>
       </c>
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_009</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="4">
@@ -2367,6 +3308,11 @@
           <t>Schwäbisch Hall</t>
         </is>
       </c>
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_010</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="4">
@@ -2377,6 +3323,11 @@
           <t>Main-Tauber-Kreis</t>
         </is>
       </c>
+      <c r="C190" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_011</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="4">
@@ -2387,6 +3338,11 @@
           <t>Heidenheim</t>
         </is>
       </c>
+      <c r="C191" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_012</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="4">
@@ -2397,6 +3353,11 @@
           <t>Ostalbkreis</t>
         </is>
       </c>
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_013</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="4">
@@ -2407,6 +3368,11 @@
           <t>Baden-Baden, Stadt</t>
         </is>
       </c>
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_014</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="4">
@@ -2417,6 +3383,11 @@
           <t>Karlsruhe, Stadt</t>
         </is>
       </c>
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_015</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="4">
@@ -2427,6 +3398,11 @@
           <t>Karlsruhe</t>
         </is>
       </c>
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_016</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="4">
@@ -2437,6 +3413,11 @@
           <t>Rastatt</t>
         </is>
       </c>
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_017</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="4">
@@ -2447,6 +3428,11 @@
           <t>Heidelberg, Stadt</t>
         </is>
       </c>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_018</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="4">
@@ -2457,6 +3443,11 @@
           <t>Mannheim, Stadt</t>
         </is>
       </c>
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_019</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="4">
@@ -2467,6 +3458,11 @@
           <t>Neckar-Odenwald-Kreis</t>
         </is>
       </c>
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_020</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="4">
@@ -2477,6 +3473,11 @@
           <t>Rhein-Neckar-Kreis</t>
         </is>
       </c>
+      <c r="C200" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_021</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="4">
@@ -2487,6 +3488,11 @@
           <t>Pforzheim, Stadt</t>
         </is>
       </c>
+      <c r="C201" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_022</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="4">
@@ -2497,6 +3503,11 @@
           <t>Calw</t>
         </is>
       </c>
+      <c r="C202" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_023</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="4">
@@ -2507,6 +3518,11 @@
           <t>Enzkreis</t>
         </is>
       </c>
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_024</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="4">
@@ -2517,6 +3533,11 @@
           <t>Freudenstadt</t>
         </is>
       </c>
+      <c r="C204" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_025</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="4">
@@ -2527,6 +3548,11 @@
           <t>Freiburg im Breisgau, Stadt</t>
         </is>
       </c>
+      <c r="C205" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_026</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="4">
@@ -2537,6 +3563,11 @@
           <t>Breisgau-Hochschwarzwald</t>
         </is>
       </c>
+      <c r="C206" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_027</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="4">
@@ -2547,6 +3578,11 @@
           <t>Emmendingen</t>
         </is>
       </c>
+      <c r="C207" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_028</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="4">
@@ -2557,6 +3593,11 @@
           <t>Ortenaukreis</t>
         </is>
       </c>
+      <c r="C208" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_029</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="4">
@@ -2567,6 +3608,11 @@
           <t>Rottweil</t>
         </is>
       </c>
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_030</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="4">
@@ -2577,6 +3623,11 @@
           <t>Schwarzwald-Baar-Kreis</t>
         </is>
       </c>
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_031</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="4">
@@ -2587,6 +3638,11 @@
           <t>Tuttlingen</t>
         </is>
       </c>
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_032</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="212">
       <c r="A212" s="4">
@@ -2597,6 +3653,11 @@
           <t>Konstanz</t>
         </is>
       </c>
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_033</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="4">
@@ -2607,6 +3668,11 @@
           <t>Lörrach</t>
         </is>
       </c>
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_034</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="4">
@@ -2617,6 +3683,11 @@
           <t>Waldshut</t>
         </is>
       </c>
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_035</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="4">
@@ -2627,6 +3698,11 @@
           <t>Reutlingen</t>
         </is>
       </c>
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_036</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="4">
@@ -2637,6 +3713,11 @@
           <t>Tübingen</t>
         </is>
       </c>
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_037</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="4">
@@ -2647,6 +3728,11 @@
           <t>Zollernalbkreis</t>
         </is>
       </c>
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_038</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="4">
@@ -2657,6 +3743,11 @@
           <t>Ulm, Stadt</t>
         </is>
       </c>
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_039</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="4">
@@ -2667,6 +3758,11 @@
           <t>Alb-Donau-Kreis</t>
         </is>
       </c>
+      <c r="C219" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_040</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4">
@@ -2677,6 +3773,11 @@
           <t>Biberach</t>
         </is>
       </c>
+      <c r="C220" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_041</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="4">
@@ -2687,6 +3788,11 @@
           <t>Bodenseekreis</t>
         </is>
       </c>
+      <c r="C221" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_042</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="4">
@@ -2697,6 +3803,11 @@
           <t>Ravensburg</t>
         </is>
       </c>
+      <c r="C222" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_043</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="4">
@@ -2707,6 +3818,11 @@
           <t>Sigmaringen</t>
         </is>
       </c>
+      <c r="C223" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_044</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="4">
@@ -2717,6 +3833,11 @@
           <t>Ingolstadt, Stadt</t>
         </is>
       </c>
+      <c r="C224" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_045</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="4">
@@ -2727,6 +3848,11 @@
           <t>München, Stadt</t>
         </is>
       </c>
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_046</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="4">
@@ -2737,6 +3863,11 @@
           <t>Rosenheim, Stadt</t>
         </is>
       </c>
+      <c r="C226" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_047</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="227">
       <c r="A227" s="4">
@@ -2747,6 +3878,11 @@
           <t>Altötting</t>
         </is>
       </c>
+      <c r="C227" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_048</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="228">
       <c r="A228" s="4">
@@ -2757,6 +3893,11 @@
           <t>Berchtesgadener Land</t>
         </is>
       </c>
+      <c r="C228" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_049</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="4">
@@ -2767,6 +3908,11 @@
           <t>Bad Tölz-Wolfratshausen</t>
         </is>
       </c>
+      <c r="C229" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_050</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="230">
       <c r="A230" s="4">
@@ -2777,6 +3923,11 @@
           <t>Dachau</t>
         </is>
       </c>
+      <c r="C230" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_051</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="231">
       <c r="A231" s="4">
@@ -2787,6 +3938,11 @@
           <t>Ebersberg</t>
         </is>
       </c>
+      <c r="C231" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_052</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="232">
       <c r="A232" s="4">
@@ -2797,6 +3953,11 @@
           <t>Eichstätt</t>
         </is>
       </c>
+      <c r="C232" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_053</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="233">
       <c r="A233" s="4">
@@ -2807,6 +3968,11 @@
           <t>Erding</t>
         </is>
       </c>
+      <c r="C233" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_054</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="234">
       <c r="A234" s="4">
@@ -2817,6 +3983,11 @@
           <t>Freising</t>
         </is>
       </c>
+      <c r="C234" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_055</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="235">
       <c r="A235" s="4">
@@ -2827,6 +3998,11 @@
           <t>Fürstenfeldbruck</t>
         </is>
       </c>
+      <c r="C235" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_056</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="236">
       <c r="A236" s="4">
@@ -2837,6 +4013,11 @@
           <t>Garmisch-Partenkirchen</t>
         </is>
       </c>
+      <c r="C236" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_057</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="237">
       <c r="A237" s="4">
@@ -2847,6 +4028,11 @@
           <t>Landsberg am Lech</t>
         </is>
       </c>
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_058</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="238">
       <c r="A238" s="4">
@@ -2857,6 +4043,11 @@
           <t>Miesbach</t>
         </is>
       </c>
+      <c r="C238" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_059</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="239">
       <c r="A239" s="4">
@@ -2867,6 +4058,11 @@
           <t>Mühldorf am Inn</t>
         </is>
       </c>
+      <c r="C239" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_060</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="240">
       <c r="A240" s="4">
@@ -2877,6 +4073,11 @@
           <t>München</t>
         </is>
       </c>
+      <c r="C240" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_061</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="241">
       <c r="A241" s="4">
@@ -2887,6 +4088,11 @@
           <t>Neuburg-Schrobenhausen</t>
         </is>
       </c>
+      <c r="C241" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_062</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="242">
       <c r="A242" s="4">
@@ -2897,6 +4103,11 @@
           <t>Pfaffenhofen an der Ilm</t>
         </is>
       </c>
+      <c r="C242" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_063</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="243">
       <c r="A243" s="4">
@@ -2907,6 +4118,11 @@
           <t>Rosenheim</t>
         </is>
       </c>
+      <c r="C243" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_064</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="244">
       <c r="A244" s="4">
@@ -2917,6 +4133,11 @@
           <t>Starnberg</t>
         </is>
       </c>
+      <c r="C244" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_065</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="245">
       <c r="A245" s="4">
@@ -2927,6 +4148,11 @@
           <t>Traunstein</t>
         </is>
       </c>
+      <c r="C245" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_066</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="246">
       <c r="A246" s="4">
@@ -2937,6 +4163,11 @@
           <t>Weilheim-Schongau</t>
         </is>
       </c>
+      <c r="C246" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_067</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="247">
       <c r="A247" s="4">
@@ -2947,6 +4178,11 @@
           <t>Landshut, Stadt</t>
         </is>
       </c>
+      <c r="C247" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_068</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="248">
       <c r="A248" s="4">
@@ -2957,6 +4193,11 @@
           <t>Passau, Stadt</t>
         </is>
       </c>
+      <c r="C248" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_069</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="249">
       <c r="A249" s="4">
@@ -2967,6 +4208,11 @@
           <t>Straubing, Stadt</t>
         </is>
       </c>
+      <c r="C249" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_070</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="250">
       <c r="A250" s="4">
@@ -2977,6 +4223,11 @@
           <t>Deggendorf</t>
         </is>
       </c>
+      <c r="C250" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_071</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="251">
       <c r="A251" s="4">
@@ -2987,6 +4238,11 @@
           <t>Freyung-Grafenau</t>
         </is>
       </c>
+      <c r="C251" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_072</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="252">
       <c r="A252" s="4">
@@ -2997,6 +4253,11 @@
           <t>Kelheim</t>
         </is>
       </c>
+      <c r="C252" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_073</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="253">
       <c r="A253" s="4">
@@ -3007,6 +4268,11 @@
           <t>Landshut</t>
         </is>
       </c>
+      <c r="C253" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_074</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="254">
       <c r="A254" s="4">
@@ -3017,6 +4283,11 @@
           <t>Passau</t>
         </is>
       </c>
+      <c r="C254" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_075</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="255">
       <c r="A255" s="4">
@@ -3027,6 +4298,11 @@
           <t>Regen</t>
         </is>
       </c>
+      <c r="C255" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_076</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="4">
@@ -3037,6 +4313,11 @@
           <t>Rottal-Inn</t>
         </is>
       </c>
+      <c r="C256" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_077</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="257">
       <c r="A257" s="4">
@@ -3047,6 +4328,11 @@
           <t>Straubing-Bogen</t>
         </is>
       </c>
+      <c r="C257" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_078</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="4">
@@ -3057,6 +4343,11 @@
           <t>Dingolfing-Landau</t>
         </is>
       </c>
+      <c r="C258" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_079</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="259">
       <c r="A259" s="4">
@@ -3067,6 +4358,11 @@
           <t>Amberg, Stadt</t>
         </is>
       </c>
+      <c r="C259" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_080</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="260">
       <c r="A260" s="4">
@@ -3077,6 +4373,11 @@
           <t>Regensburg, Stadt</t>
         </is>
       </c>
+      <c r="C260" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_081</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="261">
       <c r="A261" s="4">
@@ -3087,6 +4388,11 @@
           <t>Weiden in der Oberpfalz, Stadt</t>
         </is>
       </c>
+      <c r="C261" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_082</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="4">
@@ -3097,6 +4403,11 @@
           <t>Amberg-Sulzbach</t>
         </is>
       </c>
+      <c r="C262" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_083</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="4">
@@ -3107,6 +4418,11 @@
           <t>Cham</t>
         </is>
       </c>
+      <c r="C263" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_084</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="264">
       <c r="A264" s="4">
@@ -3117,6 +4433,11 @@
           <t>Neumarkt in der Oberpfalz</t>
         </is>
       </c>
+      <c r="C264" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_085</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="4">
@@ -3127,6 +4448,11 @@
           <t>Neustadt an der Waldnaab</t>
         </is>
       </c>
+      <c r="C265" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_086</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="266">
       <c r="A266" s="4">
@@ -3137,6 +4463,11 @@
           <t>Regensburg</t>
         </is>
       </c>
+      <c r="C266" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_087</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="4">
@@ -3147,6 +4478,11 @@
           <t>Schwandorf</t>
         </is>
       </c>
+      <c r="C267" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_088</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="4">
@@ -3157,6 +4493,11 @@
           <t>Tirschenreuth</t>
         </is>
       </c>
+      <c r="C268" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_089</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="4">
@@ -3167,6 +4508,11 @@
           <t>Bamberg, Stadt</t>
         </is>
       </c>
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_090</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="270">
       <c r="A270" s="4">
@@ -3177,6 +4523,11 @@
           <t>Bayreuth, Stadt</t>
         </is>
       </c>
+      <c r="C270" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_091</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="4">
@@ -3187,6 +4538,11 @@
           <t>Coburg, Stadt</t>
         </is>
       </c>
+      <c r="C271" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_092</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="4">
@@ -3197,6 +4553,11 @@
           <t>Hof, Stadt</t>
         </is>
       </c>
+      <c r="C272" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_093</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="273">
       <c r="A273" s="4">
@@ -3207,6 +4568,11 @@
           <t>Bamberg</t>
         </is>
       </c>
+      <c r="C273" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_094</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="274">
       <c r="A274" s="4">
@@ -3217,6 +4583,11 @@
           <t>Bayreuth</t>
         </is>
       </c>
+      <c r="C274" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_095</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="275">
       <c r="A275" s="4">
@@ -3227,6 +4598,11 @@
           <t>Coburg</t>
         </is>
       </c>
+      <c r="C275" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_096</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="276">
       <c r="A276" s="4">
@@ -3237,6 +4613,11 @@
           <t>Forchheim</t>
         </is>
       </c>
+      <c r="C276" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_097</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="277">
       <c r="A277" s="4">
@@ -3247,6 +4628,11 @@
           <t>Hof</t>
         </is>
       </c>
+      <c r="C277" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_098</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="278">
       <c r="A278" s="4">
@@ -3257,6 +4643,11 @@
           <t>Kronach</t>
         </is>
       </c>
+      <c r="C278" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_099</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="279">
       <c r="A279" s="4">
@@ -3267,6 +4658,11 @@
           <t>Kulmbach</t>
         </is>
       </c>
+      <c r="C279" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_100</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="280">
       <c r="A280" s="4">
@@ -3277,6 +4673,11 @@
           <t>Lichtenfels</t>
         </is>
       </c>
+      <c r="C280" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_101</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="281">
       <c r="A281" s="4">
@@ -3287,6 +4688,11 @@
           <t>Wunsiedel im Fichtelgebirge</t>
         </is>
       </c>
+      <c r="C281" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_102</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="282">
       <c r="A282" s="4">
@@ -3297,6 +4703,11 @@
           <t>Ansbach, Stadt</t>
         </is>
       </c>
+      <c r="C282" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_103</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="283">
       <c r="A283" s="4">
@@ -3307,6 +4718,11 @@
           <t>Erlangen, Stadt</t>
         </is>
       </c>
+      <c r="C283" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_104</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="284">
       <c r="A284" s="4">
@@ -3317,6 +4733,11 @@
           <t>Fürth, Stadt</t>
         </is>
       </c>
+      <c r="C284" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_105</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="285">
       <c r="A285" s="4">
@@ -3327,6 +4748,11 @@
           <t>Nürnberg, Stadt</t>
         </is>
       </c>
+      <c r="C285" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_106</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="286">
       <c r="A286" s="4">
@@ -3337,6 +4763,11 @@
           <t>Schwabach, Stadt</t>
         </is>
       </c>
+      <c r="C286" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_107</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="287">
       <c r="A287" s="4">
@@ -3347,6 +4778,11 @@
           <t>Ansbach</t>
         </is>
       </c>
+      <c r="C287" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_108</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="288">
       <c r="A288" s="4">
@@ -3357,6 +4793,11 @@
           <t>Erlangen-Höchstadt</t>
         </is>
       </c>
+      <c r="C288" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_109</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="289">
       <c r="A289" s="4">
@@ -3367,6 +4808,11 @@
           <t>Fürth</t>
         </is>
       </c>
+      <c r="C289" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_110</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="290">
       <c r="A290" s="4">
@@ -3377,6 +4823,11 @@
           <t>Nürnberger Land</t>
         </is>
       </c>
+      <c r="C290" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_111</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="291">
       <c r="A291" s="4">
@@ -3387,6 +4838,11 @@
           <t>Neustadt an der Aisch-Bad Windsheim</t>
         </is>
       </c>
+      <c r="C291" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_112</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="292">
       <c r="A292" s="4">
@@ -3397,6 +4853,11 @@
           <t>Roth</t>
         </is>
       </c>
+      <c r="C292" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_113</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="293">
       <c r="A293" s="4">
@@ -3407,6 +4868,11 @@
           <t>Weißenburg-Gunzenhausen</t>
         </is>
       </c>
+      <c r="C293" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_114</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="294">
       <c r="A294" s="4">
@@ -3417,6 +4883,11 @@
           <t>Aschaffenburg, Stadt</t>
         </is>
       </c>
+      <c r="C294" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_115</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="295">
       <c r="A295" s="4">
@@ -3427,6 +4898,11 @@
           <t>Schweinfurt, Stadt</t>
         </is>
       </c>
+      <c r="C295" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_116</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="296">
       <c r="A296" s="4">
@@ -3437,6 +4913,11 @@
           <t>Würzburg, Stadt</t>
         </is>
       </c>
+      <c r="C296" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_117</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="297">
       <c r="A297" s="4">
@@ -3447,6 +4928,11 @@
           <t>Aschaffenburg</t>
         </is>
       </c>
+      <c r="C297" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_118</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="298">
       <c r="A298" s="4">
@@ -3457,6 +4943,11 @@
           <t>Bad Kissingen</t>
         </is>
       </c>
+      <c r="C298" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_119</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="299">
       <c r="A299" s="4">
@@ -3467,6 +4958,11 @@
           <t>Rhön-Grabfeld</t>
         </is>
       </c>
+      <c r="C299" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_120</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="300">
       <c r="A300" s="4">
@@ -3477,6 +4973,11 @@
           <t>Haßberge</t>
         </is>
       </c>
+      <c r="C300" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_121</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="301">
       <c r="A301" s="4">
@@ -3487,6 +4988,11 @@
           <t>Kitzingen</t>
         </is>
       </c>
+      <c r="C301" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_122</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="302">
       <c r="A302" s="4">
@@ -3497,6 +5003,11 @@
           <t>Miltenberg</t>
         </is>
       </c>
+      <c r="C302" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_123</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="303">
       <c r="A303" s="4">
@@ -3507,6 +5018,11 @@
           <t>Main-Spessart</t>
         </is>
       </c>
+      <c r="C303" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_124</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="304">
       <c r="A304" s="4">
@@ -3517,6 +5033,11 @@
           <t>Schweinfurt</t>
         </is>
       </c>
+      <c r="C304" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_125</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="305">
       <c r="A305" s="4">
@@ -3527,6 +5048,11 @@
           <t>Würzburg</t>
         </is>
       </c>
+      <c r="C305" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_126</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="306">
       <c r="A306" s="4">
@@ -3537,6 +5063,11 @@
           <t>Augsburg, Stadt</t>
         </is>
       </c>
+      <c r="C306" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_127</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="307">
       <c r="A307" s="4">
@@ -3547,6 +5078,11 @@
           <t>Kaufbeuren, Stadt</t>
         </is>
       </c>
+      <c r="C307" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_128</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="308">
       <c r="A308" s="4">
@@ -3557,6 +5093,11 @@
           <t>Kempten (Allgäu), Stadt</t>
         </is>
       </c>
+      <c r="C308" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_129</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="309">
       <c r="A309" s="4">
@@ -3567,6 +5108,11 @@
           <t>Memmingen, Stadt</t>
         </is>
       </c>
+      <c r="C309" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="310">
       <c r="A310" s="4">
@@ -3577,6 +5123,11 @@
           <t>Aichach-Friedberg</t>
         </is>
       </c>
+      <c r="C310" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_131</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="311">
       <c r="A311" s="4">
@@ -3587,6 +5138,11 @@
           <t>Augsburg</t>
         </is>
       </c>
+      <c r="C311" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_132</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="312">
       <c r="A312" s="4">
@@ -3597,6 +5153,11 @@
           <t>Dillingen an der Donau</t>
         </is>
       </c>
+      <c r="C312" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_133</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="313">
       <c r="A313" s="4">
@@ -3607,6 +5168,11 @@
           <t>Günzburg</t>
         </is>
       </c>
+      <c r="C313" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_134</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="314">
       <c r="A314" s="4">
@@ -3617,6 +5183,11 @@
           <t>Neu-Ulm</t>
         </is>
       </c>
+      <c r="C314" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_135</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="315">
       <c r="A315" s="4">
@@ -3627,6 +5198,11 @@
           <t>Lindau (Bodensee)</t>
         </is>
       </c>
+      <c r="C315" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_136</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="316">
       <c r="A316" s="4">
@@ -3637,6 +5213,11 @@
           <t>Ostallgäu</t>
         </is>
       </c>
+      <c r="C316" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_137</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="317">
       <c r="A317" s="4">
@@ -3647,6 +5228,11 @@
           <t>Unterallgäu</t>
         </is>
       </c>
+      <c r="C317" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_138</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="318">
       <c r="A318" s="4">
@@ -3657,6 +5243,11 @@
           <t>Donau-Ries</t>
         </is>
       </c>
+      <c r="C318" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_139</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="319">
       <c r="A319" s="4">
@@ -3667,6 +5258,11 @@
           <t>Oberallgäu</t>
         </is>
       </c>
+      <c r="C319" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_140</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="320">
       <c r="A320" s="4">
@@ -3677,6 +5273,11 @@
           <t>Saarbrücken, Regionalverband</t>
         </is>
       </c>
+      <c r="C320" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_332</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="321">
       <c r="A321" s="4">
@@ -3687,6 +5288,11 @@
           <t>Merzig-Wadern</t>
         </is>
       </c>
+      <c r="C321" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_333</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="322">
       <c r="A322" s="4">
@@ -3697,6 +5303,11 @@
           <t>Neunkirchen</t>
         </is>
       </c>
+      <c r="C322" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_334</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="323">
       <c r="A323" s="4">
@@ -3707,6 +5318,11 @@
           <t>Saarlouis</t>
         </is>
       </c>
+      <c r="C323" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_335</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="324">
       <c r="A324" s="4">
@@ -3717,6 +5333,11 @@
           <t>Saarpfalz-Kreis</t>
         </is>
       </c>
+      <c r="C324" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_336</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="325">
       <c r="A325" s="4">
@@ -3727,6 +5348,11 @@
           <t>St. Wendel</t>
         </is>
       </c>
+      <c r="C325" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_337</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="326">
       <c r="A326" s="4">
@@ -3737,6 +5363,11 @@
           <t>Berlin, Stadt</t>
         </is>
       </c>
+      <c r="C326" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_141</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="327">
       <c r="A327" s="4">
@@ -3747,6 +5378,11 @@
           <t>Brandenburg an der Havel, Stadt</t>
         </is>
       </c>
+      <c r="C327" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_142</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="328">
       <c r="A328" s="4">
@@ -3757,6 +5393,11 @@
           <t>Cottbus, Stadt</t>
         </is>
       </c>
+      <c r="C328" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_143</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="329">
       <c r="A329" s="4">
@@ -3767,6 +5408,11 @@
           <t>Frankfurt (Oder), Stadt</t>
         </is>
       </c>
+      <c r="C329" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_144</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="330">
       <c r="A330" s="4">
@@ -3777,6 +5423,11 @@
           <t>Potsdam, Stadt</t>
         </is>
       </c>
+      <c r="C330" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_145</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="331">
       <c r="A331" s="4">
@@ -3787,6 +5438,11 @@
           <t>Barnim</t>
         </is>
       </c>
+      <c r="C331" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_146</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="332">
       <c r="A332" s="4">
@@ -3797,6 +5453,11 @@
           <t>Dahme-Spreewald</t>
         </is>
       </c>
+      <c r="C332" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_147</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="333">
       <c r="A333" s="4">
@@ -3807,6 +5468,11 @@
           <t>Elbe-Elster</t>
         </is>
       </c>
+      <c r="C333" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_148</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="334">
       <c r="A334" s="4">
@@ -3817,6 +5483,11 @@
           <t>Havelland</t>
         </is>
       </c>
+      <c r="C334" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_149</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="335">
       <c r="A335" s="4">
@@ -3827,6 +5498,11 @@
           <t>Märkisch-Oderland</t>
         </is>
       </c>
+      <c r="C335" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_150</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="336">
       <c r="A336" s="4">
@@ -3837,6 +5513,11 @@
           <t>Oberhavel</t>
         </is>
       </c>
+      <c r="C336" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_151</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="337">
       <c r="A337" s="4">
@@ -3847,6 +5528,11 @@
           <t>Oberspreewald-Lausitz</t>
         </is>
       </c>
+      <c r="C337" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_152</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="338">
       <c r="A338" s="4">
@@ -3857,6 +5543,11 @@
           <t>Oder-Spree</t>
         </is>
       </c>
+      <c r="C338" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_153</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="339">
       <c r="A339" s="4">
@@ -3867,6 +5558,11 @@
           <t>Ostprignitz-Ruppin</t>
         </is>
       </c>
+      <c r="C339" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_154</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="340">
       <c r="A340" s="4">
@@ -3877,6 +5573,11 @@
           <t>Potsdam-Mittelmark</t>
         </is>
       </c>
+      <c r="C340" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_155</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="341">
       <c r="A341" s="4">
@@ -3887,6 +5588,11 @@
           <t>Prignitz</t>
         </is>
       </c>
+      <c r="C341" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_156</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="342">
       <c r="A342" s="4">
@@ -3897,6 +5603,11 @@
           <t>Spree-Neiße</t>
         </is>
       </c>
+      <c r="C342" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_157</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="343">
       <c r="A343" s="4">
@@ -3907,6 +5618,11 @@
           <t>Teltow-Fläming</t>
         </is>
       </c>
+      <c r="C343" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_158</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="344">
       <c r="A344" s="4">
@@ -3917,6 +5633,11 @@
           <t>Uckermark</t>
         </is>
       </c>
+      <c r="C344" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_159</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="345">
       <c r="A345" s="4">
@@ -3927,6 +5648,11 @@
           <t>Rostock, Stadt</t>
         </is>
       </c>
+      <c r="C345" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_189</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="346">
       <c r="A346" s="4">
@@ -3937,6 +5663,11 @@
           <t>Schwerin, Stadt</t>
         </is>
       </c>
+      <c r="C346" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="347">
       <c r="A347" s="4">
@@ -3947,6 +5678,11 @@
           <t>Mecklenburgische Seenplatte</t>
         </is>
       </c>
+      <c r="C347" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_191</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="348">
       <c r="A348" s="4">
@@ -3957,6 +5693,11 @@
           <t>Rostock</t>
         </is>
       </c>
+      <c r="C348" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_192</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="349">
       <c r="A349" s="4">
@@ -3967,6 +5708,11 @@
           <t>Vorpommern-Rügen</t>
         </is>
       </c>
+      <c r="C349" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_193</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="350">
       <c r="A350" s="4">
@@ -3977,6 +5723,11 @@
           <t>Nordwestmecklenburg</t>
         </is>
       </c>
+      <c r="C350" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_194</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="351">
       <c r="A351" s="4">
@@ -3987,6 +5738,11 @@
           <t>Vorpommern-Greifswald</t>
         </is>
       </c>
+      <c r="C351" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_195</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="352">
       <c r="A352" s="4">
@@ -3997,6 +5753,11 @@
           <t>Ludwigslust-Parchim</t>
         </is>
       </c>
+      <c r="C352" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_196</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="353">
       <c r="A353" s="4">
@@ -4007,6 +5768,11 @@
           <t>Chemnitz, Stadt</t>
         </is>
       </c>
+      <c r="C353" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_338</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="354">
       <c r="A354" s="4">
@@ -4017,6 +5783,11 @@
           <t>Erzgebirgskreis</t>
         </is>
       </c>
+      <c r="C354" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_339</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="355">
       <c r="A355" s="4">
@@ -4027,6 +5798,11 @@
           <t>Mittelsachsen</t>
         </is>
       </c>
+      <c r="C355" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_340</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="356">
       <c r="A356" s="4">
@@ -4037,6 +5813,11 @@
           <t>Vogtlandkreis</t>
         </is>
       </c>
+      <c r="C356" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_341</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="357">
       <c r="A357" s="4">
@@ -4047,6 +5828,11 @@
           <t>Zwickau</t>
         </is>
       </c>
+      <c r="C357" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_342</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="358">
       <c r="A358" s="4">
@@ -4057,6 +5843,11 @@
           <t>Dresden, Stadt</t>
         </is>
       </c>
+      <c r="C358" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_343</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="359">
       <c r="A359" s="4">
@@ -4067,6 +5858,11 @@
           <t>Bautzen</t>
         </is>
       </c>
+      <c r="C359" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_344</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="360">
       <c r="A360" s="4">
@@ -4077,6 +5873,11 @@
           <t>Görlitz</t>
         </is>
       </c>
+      <c r="C360" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_345</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="361">
       <c r="A361" s="4">
@@ -4087,6 +5888,11 @@
           <t>Meißen</t>
         </is>
       </c>
+      <c r="C361" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_346</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="362">
       <c r="A362" s="4">
@@ -4097,6 +5903,11 @@
           <t>Sächsische Schweiz-Osterzgebirge</t>
         </is>
       </c>
+      <c r="C362" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_347</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="363">
       <c r="A363" s="4">
@@ -4107,6 +5918,11 @@
           <t>Leipzig, Stadt</t>
         </is>
       </c>
+      <c r="C363" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_348</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="364">
       <c r="A364" s="4">
@@ -4117,6 +5933,11 @@
           <t>Leipzig</t>
         </is>
       </c>
+      <c r="C364" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_349</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="365">
       <c r="A365" s="4">
@@ -4127,6 +5948,11 @@
           <t>Nordsachsen</t>
         </is>
       </c>
+      <c r="C365" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_350</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="366">
       <c r="A366" s="4">
@@ -4137,6 +5963,11 @@
           <t>Dessau-Roßlau, Stadt</t>
         </is>
       </c>
+      <c r="C366" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_351</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="367">
       <c r="A367" s="4">
@@ -4147,6 +5978,11 @@
           <t>Halle (Saale), Stadt</t>
         </is>
       </c>
+      <c r="C367" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_352</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="368">
       <c r="A368" s="4">
@@ -4157,6 +5993,11 @@
           <t>Magdeburg, Stadt</t>
         </is>
       </c>
+      <c r="C368" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_353</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="369">
       <c r="A369" s="4">
@@ -4167,6 +6008,11 @@
           <t>Altmarkkreis Salzwedel</t>
         </is>
       </c>
+      <c r="C369" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_354</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="370">
       <c r="A370" s="4">
@@ -4177,6 +6023,11 @@
           <t>Anhalt-Bitterfeld</t>
         </is>
       </c>
+      <c r="C370" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_355</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="371">
       <c r="A371" s="4">
@@ -4187,6 +6038,11 @@
           <t>Börde</t>
         </is>
       </c>
+      <c r="C371" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_356</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="372">
       <c r="A372" s="4">
@@ -4197,6 +6053,11 @@
           <t>Burgenlandkreis</t>
         </is>
       </c>
+      <c r="C372" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_357</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="373">
       <c r="A373" s="4">
@@ -4207,6 +6068,11 @@
           <t>Harz</t>
         </is>
       </c>
+      <c r="C373" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_358</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="374">
       <c r="A374" s="4">
@@ -4217,6 +6083,11 @@
           <t>Jerichower Land</t>
         </is>
       </c>
+      <c r="C374" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_359</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="375">
       <c r="A375" s="4">
@@ -4227,6 +6098,11 @@
           <t>Mansfeld-Südharz</t>
         </is>
       </c>
+      <c r="C375" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_360</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="376">
       <c r="A376" s="4">
@@ -4237,6 +6113,11 @@
           <t>Saalekreis</t>
         </is>
       </c>
+      <c r="C376" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_361</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="377">
       <c r="A377" s="4">
@@ -4247,6 +6128,11 @@
           <t>Salzlandkreis</t>
         </is>
       </c>
+      <c r="C377" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_362</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="378">
       <c r="A378" s="4">
@@ -4257,6 +6143,11 @@
           <t>Stendal</t>
         </is>
       </c>
+      <c r="C378" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_363</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="379">
       <c r="A379" s="4">
@@ -4267,6 +6158,11 @@
           <t>Wittenberg</t>
         </is>
       </c>
+      <c r="C379" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_364</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="380">
       <c r="A380" s="4">
@@ -4277,6 +6173,11 @@
           <t>Erfurt, Stadt</t>
         </is>
       </c>
+      <c r="C380" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_380</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="381">
       <c r="A381" s="4">
@@ -4287,6 +6188,11 @@
           <t>Gera, Stadt</t>
         </is>
       </c>
+      <c r="C381" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_381</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="382">
       <c r="A382" s="4">
@@ -4297,6 +6203,11 @@
           <t>Jena, Stadt</t>
         </is>
       </c>
+      <c r="C382" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_382</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="383">
       <c r="A383" s="4">
@@ -4307,6 +6218,11 @@
           <t>Suhl, Stadt</t>
         </is>
       </c>
+      <c r="C383" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_383</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="384">
       <c r="A384" s="4">
@@ -4317,6 +6233,11 @@
           <t>Weimar, Stadt</t>
         </is>
       </c>
+      <c r="C384" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_384</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="385">
       <c r="A385" s="4">
@@ -4327,6 +6248,11 @@
           <t>Eisenach, Stadt</t>
         </is>
       </c>
+      <c r="C385" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_385</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="386">
       <c r="A386" s="4">
@@ -4337,6 +6263,11 @@
           <t>Eichsfeld</t>
         </is>
       </c>
+      <c r="C386" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_386</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="387">
       <c r="A387" s="4">
@@ -4347,6 +6278,11 @@
           <t>Nordhausen</t>
         </is>
       </c>
+      <c r="C387" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_387</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="388">
       <c r="A388" s="4">
@@ -4357,6 +6293,11 @@
           <t>Wartburgkreis</t>
         </is>
       </c>
+      <c r="C388" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_388</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="389">
       <c r="A389" s="4">
@@ -4367,6 +6308,11 @@
           <t>Unstrut-Hainich-Kreis</t>
         </is>
       </c>
+      <c r="C389" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_389</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="390">
       <c r="A390" s="4">
@@ -4377,6 +6323,11 @@
           <t>Kyffhäuserkreis</t>
         </is>
       </c>
+      <c r="C390" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_390</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="391">
       <c r="A391" s="4">
@@ -4387,6 +6338,11 @@
           <t>Schmalkalden-Meiningen</t>
         </is>
       </c>
+      <c r="C391" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_391</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="392">
       <c r="A392" s="4">
@@ -4397,6 +6353,11 @@
           <t>Gotha</t>
         </is>
       </c>
+      <c r="C392" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_392</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="393">
       <c r="A393" s="4">
@@ -4407,6 +6368,11 @@
           <t>Sömmerda</t>
         </is>
       </c>
+      <c r="C393" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_393</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="394">
       <c r="A394" s="4">
@@ -4417,6 +6383,11 @@
           <t>Hildburghausen</t>
         </is>
       </c>
+      <c r="C394" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_394</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="395">
       <c r="A395" s="4">
@@ -4427,6 +6398,11 @@
           <t>Ilm-Kreis</t>
         </is>
       </c>
+      <c r="C395" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_395</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="396">
       <c r="A396" s="4">
@@ -4437,6 +6413,11 @@
           <t>Weimarer Land</t>
         </is>
       </c>
+      <c r="C396" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_396</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="397">
       <c r="A397" s="4">
@@ -4447,6 +6428,11 @@
           <t>Sonneberg</t>
         </is>
       </c>
+      <c r="C397" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_397</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="398">
       <c r="A398" s="4">
@@ -4457,6 +6443,11 @@
           <t>Saalfeld-Rudolstadt</t>
         </is>
       </c>
+      <c r="C398" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_398</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="399">
       <c r="A399" s="4">
@@ -4467,6 +6458,11 @@
           <t>Saale-Holzland-Kreis</t>
         </is>
       </c>
+      <c r="C399" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_399</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="400">
       <c r="A400" s="4">
@@ -4477,6 +6473,11 @@
           <t>Saale-Orla-Kreis</t>
         </is>
       </c>
+      <c r="C400" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_400</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="401">
       <c r="A401" s="4">
@@ -4487,6 +6488,11 @@
           <t>Greiz</t>
         </is>
       </c>
+      <c r="C401" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_401</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="402">
       <c r="A402" s="4">
@@ -4495,6 +6501,11 @@
       <c r="B402" s="5" t="inlineStr">
         <is>
           <t>Altenburger Land</t>
+        </is>
+      </c>
+      <c r="C402" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_402</t>
         </is>
       </c>
     </row>

--- a/Dic_GeoCodes.xlsx
+++ b/Dic_GeoCodes.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -841,5669 +841,5684 @@
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>Peine</t>
+          <t>Osterode am Harz</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_205</t>
+          <t>A_KREIS_204</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Wolfenbüttel</t>
+          <t>Peine</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_206</t>
+          <t>A_KREIS_205</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>Göttingen</t>
+          <t>Wolfenbüttel</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_207</t>
+          <t>A_KREIS_206</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
-        <v>3241</v>
+        <v>3159</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>Region Hannover</t>
+          <t>Göttingen</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_208</t>
+          <t>A_KREIS_207</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>Diepholz</t>
+          <t>Region Hannover</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_209</t>
+          <t>A_KREIS_208</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>Hameln-Pyrmont</t>
+          <t>Diepholz</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_210</t>
+          <t>A_KREIS_209</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>Hildesheim</t>
+          <t>Hameln-Pyrmont</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_211</t>
+          <t>A_KREIS_210</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>Holzminden</t>
+          <t>Hildesheim</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_212</t>
+          <t>A_KREIS_211</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>Nienburg (Weser)</t>
+          <t>Holzminden</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_213</t>
+          <t>A_KREIS_212</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>Schaumburg</t>
+          <t>Nienburg (Weser)</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_214</t>
+          <t>A_KREIS_213</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
-        <v>3351</v>
+        <v>3257</v>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>Celle</t>
+          <t>Schaumburg</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_215</t>
+          <t>A_KREIS_214</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>Cuxhaven</t>
+          <t>Celle</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_216</t>
+          <t>A_KREIS_215</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>Harburg</t>
+          <t>Cuxhaven</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_217</t>
+          <t>A_KREIS_216</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>Lüchow-Dannenberg</t>
+          <t>Harburg</t>
         </is>
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_218</t>
+          <t>A_KREIS_217</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>Lüneburg</t>
+          <t>Lüchow-Dannenberg</t>
         </is>
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_219</t>
+          <t>A_KREIS_218</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>Osterholz</t>
+          <t>Lüneburg</t>
         </is>
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_220</t>
+          <t>A_KREIS_219</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>Rotenburg (Wümme)</t>
+          <t>Osterholz</t>
         </is>
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_221</t>
+          <t>A_KREIS_220</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>Heidekreis</t>
+          <t>Rotenburg (Wümme)</t>
         </is>
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_222</t>
+          <t>A_KREIS_221</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>Stade</t>
+          <t>Heidekreis</t>
         </is>
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_223</t>
+          <t>A_KREIS_222</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>Uelzen</t>
+          <t>Stade</t>
         </is>
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_224</t>
+          <t>A_KREIS_223</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
-          <t>Verden</t>
+          <t>Uelzen</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_225</t>
+          <t>A_KREIS_224</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4">
-        <v>3401</v>
+        <v>3361</v>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
-          <t>Delmenhorst, Stadt</t>
+          <t>Verden</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_226</t>
+          <t>A_KREIS_225</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>Emden, Stadt</t>
+          <t>Delmenhorst, Stadt</t>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_227</t>
+          <t>A_KREIS_226</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>Oldenburg (Oldenburg), Stadt</t>
+          <t>Emden, Stadt</t>
         </is>
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_228</t>
+          <t>A_KREIS_227</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>Osnabrück, Stadt</t>
+          <t>Oldenburg (Oldenburg), Stadt</t>
         </is>
       </c>
       <c r="C49" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_229</t>
+          <t>A_KREIS_228</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>Wilhelmshaven, Stadt</t>
+          <t>Osnabrück, Stadt</t>
         </is>
       </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_230</t>
+          <t>A_KREIS_229</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4">
-        <v>3451</v>
+        <v>3405</v>
       </c>
       <c r="B51" s="5" t="inlineStr">
         <is>
-          <t>Ammerland</t>
+          <t>Wilhelmshaven, Stadt</t>
         </is>
       </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_231</t>
+          <t>A_KREIS_230</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B52" s="5" t="inlineStr">
         <is>
-          <t>Aurich</t>
+          <t>Ammerland</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_232</t>
+          <t>A_KREIS_231</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="B53" s="5" t="inlineStr">
         <is>
-          <t>Cloppenburg</t>
+          <t>Aurich</t>
         </is>
       </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_233</t>
+          <t>A_KREIS_232</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="B54" s="5" t="inlineStr">
         <is>
-          <t>Emsland</t>
+          <t>Cloppenburg</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_234</t>
+          <t>A_KREIS_233</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B55" s="5" t="inlineStr">
         <is>
-          <t>Friesland</t>
+          <t>Emsland</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_235</t>
+          <t>A_KREIS_234</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>Grafschaft Bentheim</t>
+          <t>Friesland</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_236</t>
+          <t>A_KREIS_235</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t>Leer</t>
+          <t>Grafschaft Bentheim</t>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_237</t>
+          <t>A_KREIS_236</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="B58" s="5" t="inlineStr">
         <is>
-          <t>Oldenburg</t>
+          <t>Leer</t>
         </is>
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_238</t>
+          <t>A_KREIS_237</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="B59" s="5" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Oldenburg</t>
         </is>
       </c>
       <c r="C59" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_239</t>
+          <t>A_KREIS_238</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="B60" s="5" t="inlineStr">
         <is>
-          <t>Vechta</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_240</t>
+          <t>A_KREIS_239</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B61" s="5" t="inlineStr">
         <is>
-          <t>Wesermarsch</t>
+          <t>Vechta</t>
         </is>
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_241</t>
+          <t>A_KREIS_240</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="B62" s="5" t="inlineStr">
         <is>
-          <t>Wittmund</t>
+          <t>Wesermarsch</t>
         </is>
       </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_242</t>
+          <t>A_KREIS_241</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4">
-        <v>4011</v>
+        <v>3462</v>
       </c>
       <c r="B63" s="5" t="inlineStr">
         <is>
-          <t>Bremen, Stadt</t>
+          <t>Wittmund</t>
         </is>
       </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_160</t>
+          <t>A_KREIS_242</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t>Bremerhaven, Stadt</t>
+          <t>Bremen, Stadt</t>
         </is>
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_161</t>
+          <t>A_KREIS_160</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4">
-        <v>5111</v>
+        <v>4012</v>
       </c>
       <c r="B65" s="5" t="inlineStr">
         <is>
-          <t>Düsseldorf, Stadt</t>
+          <t>Bremerhaven, Stadt</t>
         </is>
       </c>
       <c r="C65" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_243</t>
+          <t>A_KREIS_161</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B66" s="5" t="inlineStr">
         <is>
-          <t>Duisburg, Stadt</t>
+          <t>Düsseldorf, Stadt</t>
         </is>
       </c>
       <c r="C66" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_244</t>
+          <t>A_KREIS_243</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="B67" s="5" t="inlineStr">
         <is>
-          <t>Essen, Stadt</t>
+          <t>Duisburg, Stadt</t>
         </is>
       </c>
       <c r="C67" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_245</t>
+          <t>A_KREIS_244</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="B68" s="5" t="inlineStr">
         <is>
-          <t>Krefeld, Stadt</t>
+          <t>Essen, Stadt</t>
         </is>
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_246</t>
+          <t>A_KREIS_245</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="B69" s="5" t="inlineStr">
         <is>
-          <t>Mönchengladbach, Stadt</t>
+          <t>Krefeld, Stadt</t>
         </is>
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_247</t>
+          <t>A_KREIS_246</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="B70" s="5" t="inlineStr">
         <is>
-          <t>Mülheim an der Ruhr, Stadt</t>
+          <t>Mönchengladbach, Stadt</t>
         </is>
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_248</t>
+          <t>A_KREIS_247</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="B71" s="5" t="inlineStr">
         <is>
-          <t>Oberhausen, Stadt</t>
+          <t>Mülheim an der Ruhr, Stadt</t>
         </is>
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_249</t>
+          <t>A_KREIS_248</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>Remscheid, Stadt</t>
+          <t>Oberhausen, Stadt</t>
         </is>
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_250</t>
+          <t>A_KREIS_249</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="B73" s="5" t="inlineStr">
         <is>
-          <t>Solingen, Stadt</t>
+          <t>Remscheid, Stadt</t>
         </is>
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_251</t>
+          <t>A_KREIS_250</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="B74" s="5" t="inlineStr">
         <is>
-          <t>Wuppertal, Stadt</t>
+          <t>Solingen, Stadt</t>
         </is>
       </c>
       <c r="C74" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_252</t>
+          <t>A_KREIS_251</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4">
-        <v>5154</v>
+        <v>5124</v>
       </c>
       <c r="B75" s="5" t="inlineStr">
         <is>
-          <t>Kleve</t>
+          <t>Wuppertal, Stadt</t>
         </is>
       </c>
       <c r="C75" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_253</t>
+          <t>A_KREIS_252</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4">
-        <v>5158</v>
+        <v>5154</v>
       </c>
       <c r="B76" s="5" t="inlineStr">
         <is>
-          <t>Mettmann</t>
+          <t>Kleve</t>
         </is>
       </c>
       <c r="C76" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_254</t>
+          <t>A_KREIS_253</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4">
-        <v>5162</v>
+        <v>5158</v>
       </c>
       <c r="B77" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Kreis Neuss</t>
+          <t>Mettmann</t>
         </is>
       </c>
       <c r="C77" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_255</t>
+          <t>A_KREIS_254</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4">
-        <v>5166</v>
+        <v>5162</v>
       </c>
       <c r="B78" s="5" t="inlineStr">
         <is>
-          <t>Viersen</t>
+          <t>Rhein-Kreis Neuss</t>
         </is>
       </c>
       <c r="C78" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_256</t>
+          <t>A_KREIS_255</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4">
-        <v>5170</v>
+        <v>5166</v>
       </c>
       <c r="B79" s="5" t="inlineStr">
         <is>
-          <t>Wesel</t>
+          <t>Viersen</t>
         </is>
       </c>
       <c r="C79" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_257</t>
+          <t>A_KREIS_256</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4">
-        <v>5314</v>
+        <v>5170</v>
       </c>
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>Bonn, Stadt</t>
+          <t>Wesel</t>
         </is>
       </c>
       <c r="C80" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_258</t>
+          <t>A_KREIS_257</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B81" s="5" t="inlineStr">
         <is>
-          <t>Köln, Stadt</t>
+          <t>Bonn, Stadt</t>
         </is>
       </c>
       <c r="C81" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_259</t>
+          <t>A_KREIS_258</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="B82" s="5" t="inlineStr">
         <is>
-          <t>Leverkusen, Stadt</t>
+          <t>Köln, Stadt</t>
         </is>
       </c>
       <c r="C82" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_260</t>
+          <t>A_KREIS_259</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4">
-        <v>5334</v>
+        <v>5316</v>
       </c>
       <c r="B83" s="5" t="inlineStr">
         <is>
-          <t>Städteregion Aachen</t>
+          <t>Leverkusen, Stadt</t>
         </is>
       </c>
       <c r="C83" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_261</t>
+          <t>A_KREIS_260</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4">
-        <v>5358</v>
+        <v>5334</v>
       </c>
       <c r="B84" s="5" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Städteregion Aachen</t>
         </is>
       </c>
       <c r="C84" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_262</t>
+          <t>A_KREIS_261</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4">
-        <v>5362</v>
+        <v>5358</v>
       </c>
       <c r="B85" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Erft-Kreis</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="C85" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_263</t>
+          <t>A_KREIS_262</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4">
-        <v>5366</v>
+        <v>5362</v>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>Euskirchen</t>
+          <t>Rhein-Erft-Kreis</t>
         </is>
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_264</t>
+          <t>A_KREIS_263</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4">
-        <v>5370</v>
+        <v>5366</v>
       </c>
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t>Heinsberg</t>
+          <t>Euskirchen</t>
         </is>
       </c>
       <c r="C87" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_265</t>
+          <t>A_KREIS_264</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4">
-        <v>5374</v>
+        <v>5370</v>
       </c>
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t>Oberbergischer Kreis</t>
+          <t>Heinsberg</t>
         </is>
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_266</t>
+          <t>A_KREIS_265</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4">
-        <v>5378</v>
+        <v>5374</v>
       </c>
       <c r="B89" s="5" t="inlineStr">
         <is>
-          <t>Rheinisch-Bergischer Kreis</t>
+          <t>Oberbergischer Kreis</t>
         </is>
       </c>
       <c r="C89" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_267</t>
+          <t>A_KREIS_266</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4">
-        <v>5382</v>
+        <v>5378</v>
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Sieg-Kreis</t>
+          <t>Rheinisch-Bergischer Kreis</t>
         </is>
       </c>
       <c r="C90" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_268</t>
+          <t>A_KREIS_267</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4">
-        <v>5512</v>
+        <v>5382</v>
       </c>
       <c r="B91" s="5" t="inlineStr">
         <is>
-          <t>Bottrop, Stadt</t>
+          <t>Rhein-Sieg-Kreis</t>
         </is>
       </c>
       <c r="C91" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_269</t>
+          <t>A_KREIS_268</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="B92" s="5" t="inlineStr">
         <is>
-          <t>Gelsenkirchen, Stadt</t>
+          <t>Bottrop, Stadt</t>
         </is>
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_270</t>
+          <t>A_KREIS_269</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="B93" s="5" t="inlineStr">
         <is>
-          <t>Münster, Stadt</t>
+          <t>Gelsenkirchen, Stadt</t>
         </is>
       </c>
       <c r="C93" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_271</t>
+          <t>A_KREIS_270</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4">
-        <v>5554</v>
+        <v>5515</v>
       </c>
       <c r="B94" s="5" t="inlineStr">
         <is>
-          <t>Borken</t>
+          <t>Münster, Stadt</t>
         </is>
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_272</t>
+          <t>A_KREIS_271</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4">
-        <v>5558</v>
+        <v>5554</v>
       </c>
       <c r="B95" s="5" t="inlineStr">
         <is>
-          <t>Coesfeld</t>
+          <t>Borken</t>
         </is>
       </c>
       <c r="C95" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_273</t>
+          <t>A_KREIS_272</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4">
-        <v>5562</v>
+        <v>5558</v>
       </c>
       <c r="B96" s="5" t="inlineStr">
         <is>
-          <t>Recklinghausen</t>
+          <t>Coesfeld</t>
         </is>
       </c>
       <c r="C96" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_274</t>
+          <t>A_KREIS_273</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4">
-        <v>5566</v>
+        <v>5562</v>
       </c>
       <c r="B97" s="5" t="inlineStr">
         <is>
-          <t>Steinfurt</t>
+          <t>Recklinghausen</t>
         </is>
       </c>
       <c r="C97" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_275</t>
+          <t>A_KREIS_274</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4">
-        <v>5570</v>
+        <v>5566</v>
       </c>
       <c r="B98" s="5" t="inlineStr">
         <is>
-          <t>Warendorf</t>
+          <t>Steinfurt</t>
         </is>
       </c>
       <c r="C98" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_276</t>
+          <t>A_KREIS_275</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4">
-        <v>5711</v>
+        <v>5570</v>
       </c>
       <c r="B99" s="5" t="inlineStr">
         <is>
-          <t>Bielefeld, Stadt</t>
+          <t>Warendorf</t>
         </is>
       </c>
       <c r="C99" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_277</t>
+          <t>A_KREIS_276</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4">
-        <v>5754</v>
+        <v>5711</v>
       </c>
       <c r="B100" s="5" t="inlineStr">
         <is>
-          <t>Gütersloh</t>
+          <t>Bielefeld, Stadt</t>
         </is>
       </c>
       <c r="C100" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_278</t>
+          <t>A_KREIS_277</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4">
-        <v>5758</v>
+        <v>5754</v>
       </c>
       <c r="B101" s="5" t="inlineStr">
         <is>
-          <t>Herford</t>
+          <t>Gütersloh</t>
         </is>
       </c>
       <c r="C101" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_279</t>
+          <t>A_KREIS_278</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4">
-        <v>5762</v>
+        <v>5758</v>
       </c>
       <c r="B102" s="5" t="inlineStr">
         <is>
-          <t>Höxter</t>
+          <t>Herford</t>
         </is>
       </c>
       <c r="C102" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_280</t>
+          <t>A_KREIS_279</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4">
-        <v>5766</v>
+        <v>5762</v>
       </c>
       <c r="B103" s="5" t="inlineStr">
         <is>
-          <t>Lippe</t>
+          <t>Höxter</t>
         </is>
       </c>
       <c r="C103" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_281</t>
+          <t>A_KREIS_280</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4">
-        <v>5770</v>
+        <v>5766</v>
       </c>
       <c r="B104" s="5" t="inlineStr">
         <is>
-          <t>Minden-Lübbecke</t>
+          <t>Lippe</t>
         </is>
       </c>
       <c r="C104" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_282</t>
+          <t>A_KREIS_281</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4">
-        <v>5774</v>
+        <v>5770</v>
       </c>
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Minden-Lübbecke</t>
         </is>
       </c>
       <c r="C105" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_283</t>
+          <t>A_KREIS_282</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4">
-        <v>5911</v>
+        <v>5774</v>
       </c>
       <c r="B106" s="5" t="inlineStr">
         <is>
-          <t>Bochum, Stadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="C106" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_284</t>
+          <t>A_KREIS_283</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="B107" s="5" t="inlineStr">
         <is>
-          <t>Dortmund, Stadt</t>
+          <t>Bochum, Stadt</t>
         </is>
       </c>
       <c r="C107" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_285</t>
+          <t>A_KREIS_284</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4">
-        <v>5914</v>
+        <v>5913</v>
       </c>
       <c r="B108" s="5" t="inlineStr">
         <is>
-          <t>Hagen, Stadt</t>
+          <t>Dortmund, Stadt</t>
         </is>
       </c>
       <c r="C108" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_286</t>
+          <t>A_KREIS_285</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4">
-        <v>5915</v>
+        <v>5914</v>
       </c>
       <c r="B109" s="5" t="inlineStr">
         <is>
-          <t>Hamm, Stadt</t>
+          <t>Hagen, Stadt</t>
         </is>
       </c>
       <c r="C109" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_287</t>
+          <t>A_KREIS_286</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4">
-        <v>5916</v>
+        <v>5915</v>
       </c>
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t>Herne, Stadt</t>
+          <t>Hamm, Stadt</t>
         </is>
       </c>
       <c r="C110" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_288</t>
+          <t>A_KREIS_287</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4">
-        <v>5954</v>
+        <v>5916</v>
       </c>
       <c r="B111" s="5" t="inlineStr">
         <is>
-          <t>Ennepe-Ruhr-Kreis</t>
+          <t>Herne, Stadt</t>
         </is>
       </c>
       <c r="C111" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_289</t>
+          <t>A_KREIS_288</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4">
-        <v>5958</v>
+        <v>5954</v>
       </c>
       <c r="B112" s="5" t="inlineStr">
         <is>
-          <t>Hochsauerlandkreis</t>
+          <t>Ennepe-Ruhr-Kreis</t>
         </is>
       </c>
       <c r="C112" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_290</t>
+          <t>A_KREIS_289</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="B113" s="5" t="inlineStr">
         <is>
-          <t>Märkischer Kreis</t>
+          <t>Hochsauerlandkreis</t>
         </is>
       </c>
       <c r="C113" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_291</t>
+          <t>A_KREIS_290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4">
-        <v>5966</v>
+        <v>5962</v>
       </c>
       <c r="B114" s="5" t="inlineStr">
         <is>
-          <t>Olpe</t>
+          <t>Märkischer Kreis</t>
         </is>
       </c>
       <c r="C114" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_292</t>
+          <t>A_KREIS_291</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4">
-        <v>5970</v>
+        <v>5966</v>
       </c>
       <c r="B115" s="5" t="inlineStr">
         <is>
-          <t>Siegen-Wittgenstein</t>
+          <t>Olpe</t>
         </is>
       </c>
       <c r="C115" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_293</t>
+          <t>A_KREIS_292</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4">
-        <v>5974</v>
+        <v>5970</v>
       </c>
       <c r="B116" s="5" t="inlineStr">
         <is>
-          <t>Soest</t>
+          <t>Siegen-Wittgenstein</t>
         </is>
       </c>
       <c r="C116" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_294</t>
+          <t>A_KREIS_293</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4">
-        <v>5978</v>
+        <v>5974</v>
       </c>
       <c r="B117" s="5" t="inlineStr">
         <is>
-          <t>Unna</t>
+          <t>Soest</t>
         </is>
       </c>
       <c r="C117" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_295</t>
+          <t>A_KREIS_294</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4">
-        <v>6411</v>
+        <v>5978</v>
       </c>
       <c r="B118" s="5" t="inlineStr">
         <is>
-          <t>Darmstadt, Stadt</t>
+          <t>Unna</t>
         </is>
       </c>
       <c r="C118" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_163</t>
+          <t>A_KREIS_295</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="B119" s="5" t="inlineStr">
         <is>
-          <t>Frankfurt am Main, Stadt</t>
+          <t>Darmstadt, Stadt</t>
         </is>
       </c>
       <c r="C119" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_164</t>
+          <t>A_KREIS_163</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="B120" s="5" t="inlineStr">
         <is>
-          <t>Offenbach am Main, Stadt</t>
+          <t>Frankfurt am Main, Stadt</t>
         </is>
       </c>
       <c r="C120" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_165</t>
+          <t>A_KREIS_164</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="B121" s="5" t="inlineStr">
         <is>
-          <t>Wiesbaden, Stadt</t>
+          <t>Offenbach am Main, Stadt</t>
         </is>
       </c>
       <c r="C121" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_166</t>
+          <t>A_KREIS_165</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4">
-        <v>6431</v>
+        <v>6414</v>
       </c>
       <c r="B122" s="5" t="inlineStr">
         <is>
-          <t>Bergstraße</t>
+          <t>Wiesbaden, Stadt</t>
         </is>
       </c>
       <c r="C122" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_167</t>
+          <t>A_KREIS_166</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="B123" s="5" t="inlineStr">
         <is>
-          <t>Darmstadt-Dieburg</t>
+          <t>Bergstraße</t>
         </is>
       </c>
       <c r="C123" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_168</t>
+          <t>A_KREIS_167</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="B124" s="5" t="inlineStr">
         <is>
-          <t>Groß-Gerau</t>
+          <t>Darmstadt-Dieburg</t>
         </is>
       </c>
       <c r="C124" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_169</t>
+          <t>A_KREIS_168</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="B125" s="5" t="inlineStr">
         <is>
-          <t>Hochtaunuskreis</t>
+          <t>Groß-Gerau</t>
         </is>
       </c>
       <c r="C125" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_170</t>
+          <t>A_KREIS_169</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="B126" s="5" t="inlineStr">
         <is>
-          <t>Main-Kinzig-Kreis</t>
+          <t>Hochtaunuskreis</t>
         </is>
       </c>
       <c r="C126" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_171</t>
+          <t>A_KREIS_170</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="B127" s="5" t="inlineStr">
         <is>
-          <t>Main-Taunus-Kreis</t>
+          <t>Main-Kinzig-Kreis</t>
         </is>
       </c>
       <c r="C127" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_172</t>
+          <t>A_KREIS_171</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="B128" s="5" t="inlineStr">
         <is>
-          <t>Odenwaldkreis</t>
+          <t>Main-Taunus-Kreis</t>
         </is>
       </c>
       <c r="C128" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_173</t>
+          <t>A_KREIS_172</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="B129" s="5" t="inlineStr">
         <is>
-          <t>Offenbach</t>
+          <t>Odenwaldkreis</t>
         </is>
       </c>
       <c r="C129" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_174</t>
+          <t>A_KREIS_173</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="B130" s="5" t="inlineStr">
         <is>
-          <t>Rheingau-Taunus-Kreis</t>
+          <t>Offenbach</t>
         </is>
       </c>
       <c r="C130" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_175</t>
+          <t>A_KREIS_174</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4">
-        <v>6440</v>
+        <v>6439</v>
       </c>
       <c r="B131" s="5" t="inlineStr">
         <is>
-          <t>Wetteraukreis</t>
+          <t>Rheingau-Taunus-Kreis</t>
         </is>
       </c>
       <c r="C131" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_176</t>
+          <t>A_KREIS_175</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4">
-        <v>6531</v>
+        <v>6440</v>
       </c>
       <c r="B132" s="5" t="inlineStr">
         <is>
-          <t>Gießen</t>
+          <t>Wetteraukreis</t>
         </is>
       </c>
       <c r="C132" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_177</t>
+          <t>A_KREIS_176</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="B133" s="5" t="inlineStr">
         <is>
-          <t>Lahn-Dill-Kreis</t>
+          <t>Gießen</t>
         </is>
       </c>
       <c r="C133" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_178</t>
+          <t>A_KREIS_177</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="B134" s="5" t="inlineStr">
         <is>
-          <t>Limburg-Weilburg</t>
+          <t>Lahn-Dill-Kreis</t>
         </is>
       </c>
       <c r="C134" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_179</t>
+          <t>A_KREIS_178</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="B135" s="5" t="inlineStr">
         <is>
-          <t>Marburg-Biedenkopf</t>
+          <t>Limburg-Weilburg</t>
         </is>
       </c>
       <c r="C135" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_180</t>
+          <t>A_KREIS_179</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="B136" s="5" t="inlineStr">
         <is>
-          <t>Vogelsbergkreis</t>
+          <t>Marburg-Biedenkopf</t>
         </is>
       </c>
       <c r="C136" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_181</t>
+          <t>A_KREIS_180</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4">
-        <v>6611</v>
+        <v>6535</v>
       </c>
       <c r="B137" s="5" t="inlineStr">
         <is>
-          <t>Kassel, Stadt</t>
+          <t>Vogelsbergkreis</t>
         </is>
       </c>
       <c r="C137" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_182</t>
+          <t>A_KREIS_181</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4">
-        <v>6631</v>
+        <v>6611</v>
       </c>
       <c r="B138" s="5" t="inlineStr">
         <is>
-          <t>Fulda</t>
+          <t>Kassel, Stadt</t>
         </is>
       </c>
       <c r="C138" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_183</t>
+          <t>A_KREIS_182</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="B139" s="5" t="inlineStr">
         <is>
-          <t>Hersfeld-Rotenburg</t>
+          <t>Fulda</t>
         </is>
       </c>
       <c r="C139" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_184</t>
+          <t>A_KREIS_183</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="B140" s="5" t="inlineStr">
         <is>
-          <t>Kassel</t>
+          <t>Hersfeld-Rotenburg</t>
         </is>
       </c>
       <c r="C140" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_185</t>
+          <t>A_KREIS_184</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="B141" s="5" t="inlineStr">
         <is>
-          <t>Schwalm-Eder-Kreis</t>
+          <t>Kassel</t>
         </is>
       </c>
       <c r="C141" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_186</t>
+          <t>A_KREIS_185</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="B142" s="5" t="inlineStr">
         <is>
-          <t>Waldeck-Frankenberg</t>
+          <t>Schwalm-Eder-Kreis</t>
         </is>
       </c>
       <c r="C142" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_187</t>
+          <t>A_KREIS_186</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="B143" s="5" t="inlineStr">
         <is>
-          <t>Werra-Meißner-Kreis</t>
+          <t>Waldeck-Frankenberg</t>
         </is>
       </c>
       <c r="C143" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_188</t>
+          <t>A_KREIS_187</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4">
-        <v>7111</v>
+        <v>6636</v>
       </c>
       <c r="B144" s="5" t="inlineStr">
         <is>
-          <t>Koblenz, Stadt</t>
+          <t>Werra-Meißner-Kreis</t>
         </is>
       </c>
       <c r="C144" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_296</t>
+          <t>A_KREIS_188</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4">
-        <v>7131</v>
+        <v>7111</v>
       </c>
       <c r="B145" s="5" t="inlineStr">
         <is>
-          <t>Ahrweiler</t>
+          <t>Koblenz, Stadt</t>
         </is>
       </c>
       <c r="C145" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_297</t>
+          <t>A_KREIS_296</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="B146" s="5" t="inlineStr">
         <is>
-          <t>Altenkirchen (Westerwald)</t>
+          <t>Ahrweiler</t>
         </is>
       </c>
       <c r="C146" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_298</t>
+          <t>A_KREIS_297</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="B147" s="5" t="inlineStr">
         <is>
-          <t>Bad Kreuznach</t>
+          <t>Altenkirchen (Westerwald)</t>
         </is>
       </c>
       <c r="C147" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_299</t>
+          <t>A_KREIS_298</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="B148" s="5" t="inlineStr">
         <is>
-          <t>Birkenfeld</t>
+          <t>Bad Kreuznach</t>
         </is>
       </c>
       <c r="C148" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_300</t>
+          <t>A_KREIS_299</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="B149" s="5" t="inlineStr">
         <is>
-          <t>Cochem-Zell</t>
+          <t>Birkenfeld</t>
         </is>
       </c>
       <c r="C149" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_301</t>
+          <t>A_KREIS_300</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4">
-        <v>7137</v>
+        <v>7135</v>
       </c>
       <c r="B150" s="5" t="inlineStr">
         <is>
-          <t>Mayen-Koblenz</t>
+          <t>Cochem-Zell</t>
         </is>
       </c>
       <c r="C150" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_302</t>
+          <t>A_KREIS_301</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4">
-        <v>7138</v>
+        <v>7137</v>
       </c>
       <c r="B151" s="5" t="inlineStr">
         <is>
-          <t>Neuwied</t>
+          <t>Mayen-Koblenz</t>
         </is>
       </c>
       <c r="C151" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_303</t>
+          <t>A_KREIS_302</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4">
-        <v>7140</v>
+        <v>7138</v>
       </c>
       <c r="B152" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Hunsrück-Kreis</t>
+          <t>Neuwied</t>
         </is>
       </c>
       <c r="C152" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_304</t>
+          <t>A_KREIS_303</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="B153" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Lahn-Kreis</t>
+          <t>Rhein-Hunsrück-Kreis</t>
         </is>
       </c>
       <c r="C153" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_305</t>
+          <t>A_KREIS_304</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4">
-        <v>7143</v>
+        <v>7141</v>
       </c>
       <c r="B154" s="5" t="inlineStr">
         <is>
-          <t>Westerwaldkreis</t>
+          <t>Rhein-Lahn-Kreis</t>
         </is>
       </c>
       <c r="C154" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_306</t>
+          <t>A_KREIS_305</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4">
-        <v>7211</v>
+        <v>7143</v>
       </c>
       <c r="B155" s="5" t="inlineStr">
         <is>
-          <t>Trier, Stadt</t>
+          <t>Westerwaldkreis</t>
         </is>
       </c>
       <c r="C155" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_307</t>
+          <t>A_KREIS_306</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4">
-        <v>7231</v>
+        <v>7211</v>
       </c>
       <c r="B156" s="5" t="inlineStr">
         <is>
-          <t>Bernkastel-Wittlich</t>
+          <t>Trier, Stadt</t>
         </is>
       </c>
       <c r="C156" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_308</t>
+          <t>A_KREIS_307</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="B157" s="5" t="inlineStr">
         <is>
-          <t>Eifelkreis Bitburg-Prüm</t>
+          <t>Bernkastel-Wittlich</t>
         </is>
       </c>
       <c r="C157" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_309</t>
+          <t>A_KREIS_308</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B158" s="5" t="inlineStr">
         <is>
-          <t>Vulkaneifel</t>
+          <t>Eifelkreis Bitburg-Prüm</t>
         </is>
       </c>
       <c r="C158" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_310</t>
+          <t>A_KREIS_309</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4">
-        <v>7235</v>
+        <v>7233</v>
       </c>
       <c r="B159" s="5" t="inlineStr">
         <is>
-          <t>Trier-Saarburg</t>
+          <t>Vulkaneifel</t>
         </is>
       </c>
       <c r="C159" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_311</t>
+          <t>A_KREIS_310</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4">
-        <v>7311</v>
+        <v>7235</v>
       </c>
       <c r="B160" s="5" t="inlineStr">
         <is>
-          <t>Frankenthal (Pfalz), Stadt</t>
+          <t>Trier-Saarburg</t>
         </is>
       </c>
       <c r="C160" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_312</t>
+          <t>A_KREIS_311</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="B161" s="5" t="inlineStr">
         <is>
-          <t>Kaiserslautern, Stadt</t>
+          <t>Frankenthal (Pfalz), Stadt</t>
         </is>
       </c>
       <c r="C161" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_313</t>
+          <t>A_KREIS_312</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="B162" s="5" t="inlineStr">
         <is>
-          <t>Landau in der Pfalz, Stadt</t>
+          <t>Kaiserslautern, Stadt</t>
         </is>
       </c>
       <c r="C162" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_314</t>
+          <t>A_KREIS_313</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="B163" s="5" t="inlineStr">
         <is>
-          <t>Ludwigshafen am Rhein, Stadt</t>
+          <t>Landau in der Pfalz, Stadt</t>
         </is>
       </c>
       <c r="C163" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_315</t>
+          <t>A_KREIS_314</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4">
-        <v>7315</v>
+        <v>7314</v>
       </c>
       <c r="B164" s="5" t="inlineStr">
         <is>
-          <t>Mainz, Stadt</t>
+          <t>Ludwigshafen am Rhein, Stadt</t>
         </is>
       </c>
       <c r="C164" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_316</t>
+          <t>A_KREIS_315</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="B165" s="5" t="inlineStr">
         <is>
-          <t>Neustadt an der Weinstraße, Stadt</t>
+          <t>Mainz, Stadt</t>
         </is>
       </c>
       <c r="C165" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_317</t>
+          <t>A_KREIS_316</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="B166" s="5" t="inlineStr">
         <is>
-          <t>Pirmasens, Stadt</t>
+          <t>Neustadt an der Weinstraße, Stadt</t>
         </is>
       </c>
       <c r="C166" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_318</t>
+          <t>A_KREIS_317</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="B167" s="5" t="inlineStr">
         <is>
-          <t>Speyer, Stadt</t>
+          <t>Pirmasens, Stadt</t>
         </is>
       </c>
       <c r="C167" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_319</t>
+          <t>A_KREIS_318</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="B168" s="5" t="inlineStr">
         <is>
-          <t>Worms, Stadt</t>
+          <t>Speyer, Stadt</t>
         </is>
       </c>
       <c r="C168" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_320</t>
+          <t>A_KREIS_319</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4">
-        <v>7320</v>
+        <v>7319</v>
       </c>
       <c r="B169" s="5" t="inlineStr">
         <is>
-          <t>Zweibrücken, Stadt</t>
+          <t>Worms, Stadt</t>
         </is>
       </c>
       <c r="C169" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_321</t>
+          <t>A_KREIS_320</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4">
-        <v>7331</v>
+        <v>7320</v>
       </c>
       <c r="B170" s="5" t="inlineStr">
         <is>
-          <t>Alzey-Worms</t>
+          <t>Zweibrücken, Stadt</t>
         </is>
       </c>
       <c r="C170" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_322</t>
+          <t>A_KREIS_321</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="4">
-        <v>7332</v>
+        <v>7331</v>
       </c>
       <c r="B171" s="5" t="inlineStr">
         <is>
-          <t>Bad Dürkheim</t>
+          <t>Alzey-Worms</t>
         </is>
       </c>
       <c r="C171" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_323</t>
+          <t>A_KREIS_322</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="4">
-        <v>7333</v>
+        <v>7332</v>
       </c>
       <c r="B172" s="5" t="inlineStr">
         <is>
-          <t>Donnersbergkreis</t>
+          <t>Bad Dürkheim</t>
         </is>
       </c>
       <c r="C172" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_324</t>
+          <t>A_KREIS_323</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="4">
-        <v>7334</v>
+        <v>7333</v>
       </c>
       <c r="B173" s="5" t="inlineStr">
         <is>
-          <t>Germersheim</t>
+          <t>Donnersbergkreis</t>
         </is>
       </c>
       <c r="C173" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_325</t>
+          <t>A_KREIS_324</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4">
-        <v>7335</v>
+        <v>7334</v>
       </c>
       <c r="B174" s="5" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Germersheim</t>
         </is>
       </c>
       <c r="C174" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_326</t>
+          <t>A_KREIS_325</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4">
-        <v>7336</v>
+        <v>7335</v>
       </c>
       <c r="B175" s="5" t="inlineStr">
         <is>
-          <t>Kusel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="C175" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_327</t>
+          <t>A_KREIS_326</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4">
-        <v>7337</v>
+        <v>7336</v>
       </c>
       <c r="B176" s="5" t="inlineStr">
         <is>
-          <t>Südliche Weinstraße</t>
+          <t>Kusel</t>
         </is>
       </c>
       <c r="C176" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_328</t>
+          <t>A_KREIS_327</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="B177" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Pfalz-Kreis</t>
+          <t>Südliche Weinstraße</t>
         </is>
       </c>
       <c r="C177" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_329</t>
+          <t>A_KREIS_328</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="B178" s="5" t="inlineStr">
         <is>
-          <t>Mainz-Bingen</t>
+          <t>Rhein-Pfalz-Kreis</t>
         </is>
       </c>
       <c r="C178" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_330</t>
+          <t>A_KREIS_329</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4">
-        <v>7340</v>
+        <v>7339</v>
       </c>
       <c r="B179" s="5" t="inlineStr">
         <is>
-          <t>Südwestpfalz</t>
+          <t>Mainz-Bingen</t>
         </is>
       </c>
       <c r="C179" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_331</t>
+          <t>A_KREIS_330</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4">
-        <v>8111</v>
+        <v>7340</v>
       </c>
       <c r="B180" s="5" t="inlineStr">
         <is>
-          <t>Stuttgart, Stadt</t>
+          <t>Südwestpfalz</t>
         </is>
       </c>
       <c r="C180" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_001</t>
+          <t>A_KREIS_331</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4">
-        <v>8115</v>
+        <v>8111</v>
       </c>
       <c r="B181" s="5" t="inlineStr">
         <is>
-          <t>Böblingen</t>
+          <t>Stuttgart, Stadt</t>
         </is>
       </c>
       <c r="C181" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_002</t>
+          <t>A_KREIS_001</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4">
-        <v>8116</v>
+        <v>8115</v>
       </c>
       <c r="B182" s="5" t="inlineStr">
         <is>
-          <t>Esslingen</t>
+          <t>Böblingen</t>
         </is>
       </c>
       <c r="C182" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_003</t>
+          <t>A_KREIS_002</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4">
-        <v>8117</v>
+        <v>8116</v>
       </c>
       <c r="B183" s="5" t="inlineStr">
         <is>
-          <t>Göppingen</t>
+          <t>Esslingen</t>
         </is>
       </c>
       <c r="C183" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_004</t>
+          <t>A_KREIS_003</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4">
-        <v>8118</v>
+        <v>8117</v>
       </c>
       <c r="B184" s="5" t="inlineStr">
         <is>
-          <t>Ludwigsburg</t>
+          <t>Göppingen</t>
         </is>
       </c>
       <c r="C184" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_005</t>
+          <t>A_KREIS_004</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="4">
-        <v>8119</v>
+        <v>8118</v>
       </c>
       <c r="B185" s="5" t="inlineStr">
         <is>
-          <t>Rems-Murr-Kreis</t>
+          <t>Ludwigsburg</t>
         </is>
       </c>
       <c r="C185" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_006</t>
+          <t>A_KREIS_005</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="4">
-        <v>8121</v>
+        <v>8119</v>
       </c>
       <c r="B186" s="5" t="inlineStr">
         <is>
-          <t>Heilbronn, Stadt</t>
+          <t>Rems-Murr-Kreis</t>
         </is>
       </c>
       <c r="C186" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_007</t>
+          <t>A_KREIS_006</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="4">
-        <v>8125</v>
+        <v>8121</v>
       </c>
       <c r="B187" s="5" t="inlineStr">
         <is>
-          <t>Heilbronn</t>
+          <t>Heilbronn, Stadt</t>
         </is>
       </c>
       <c r="C187" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_008</t>
+          <t>A_KREIS_007</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="4">
-        <v>8126</v>
+        <v>8125</v>
       </c>
       <c r="B188" s="5" t="inlineStr">
         <is>
-          <t>Hohenlohekreis</t>
+          <t>Heilbronn</t>
         </is>
       </c>
       <c r="C188" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_009</t>
+          <t>A_KREIS_008</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="4">
-        <v>8127</v>
+        <v>8126</v>
       </c>
       <c r="B189" s="5" t="inlineStr">
         <is>
-          <t>Schwäbisch Hall</t>
+          <t>Hohenlohekreis</t>
         </is>
       </c>
       <c r="C189" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_010</t>
+          <t>A_KREIS_009</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="4">
-        <v>8128</v>
+        <v>8127</v>
       </c>
       <c r="B190" s="5" t="inlineStr">
         <is>
-          <t>Main-Tauber-Kreis</t>
+          <t>Schwäbisch Hall</t>
         </is>
       </c>
       <c r="C190" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_011</t>
+          <t>A_KREIS_010</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="4">
-        <v>8135</v>
+        <v>8128</v>
       </c>
       <c r="B191" s="5" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Main-Tauber-Kreis</t>
         </is>
       </c>
       <c r="C191" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_012</t>
+          <t>A_KREIS_011</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="4">
-        <v>8136</v>
+        <v>8135</v>
       </c>
       <c r="B192" s="5" t="inlineStr">
         <is>
-          <t>Ostalbkreis</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C192" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_013</t>
+          <t>A_KREIS_012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="4">
-        <v>8211</v>
+        <v>8136</v>
       </c>
       <c r="B193" s="5" t="inlineStr">
         <is>
-          <t>Baden-Baden, Stadt</t>
+          <t>Ostalbkreis</t>
         </is>
       </c>
       <c r="C193" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_014</t>
+          <t>A_KREIS_013</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="4">
-        <v>8212</v>
+        <v>8211</v>
       </c>
       <c r="B194" s="5" t="inlineStr">
         <is>
-          <t>Karlsruhe, Stadt</t>
+          <t>Baden-Baden, Stadt</t>
         </is>
       </c>
       <c r="C194" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_015</t>
+          <t>A_KREIS_014</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="4">
-        <v>8215</v>
+        <v>8212</v>
       </c>
       <c r="B195" s="5" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Karlsruhe, Stadt</t>
         </is>
       </c>
       <c r="C195" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_016</t>
+          <t>A_KREIS_015</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="4">
-        <v>8216</v>
+        <v>8215</v>
       </c>
       <c r="B196" s="5" t="inlineStr">
         <is>
-          <t>Rastatt</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="C196" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_017</t>
+          <t>A_KREIS_016</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="4">
-        <v>8221</v>
+        <v>8216</v>
       </c>
       <c r="B197" s="5" t="inlineStr">
         <is>
-          <t>Heidelberg, Stadt</t>
+          <t>Rastatt</t>
         </is>
       </c>
       <c r="C197" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_018</t>
+          <t>A_KREIS_017</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="4">
-        <v>8222</v>
+        <v>8221</v>
       </c>
       <c r="B198" s="5" t="inlineStr">
         <is>
-          <t>Mannheim, Stadt</t>
+          <t>Heidelberg, Stadt</t>
         </is>
       </c>
       <c r="C198" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_019</t>
+          <t>A_KREIS_018</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="4">
-        <v>8225</v>
+        <v>8222</v>
       </c>
       <c r="B199" s="5" t="inlineStr">
         <is>
-          <t>Neckar-Odenwald-Kreis</t>
+          <t>Mannheim, Stadt</t>
         </is>
       </c>
       <c r="C199" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_020</t>
+          <t>A_KREIS_019</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="4">
-        <v>8226</v>
+        <v>8225</v>
       </c>
       <c r="B200" s="5" t="inlineStr">
         <is>
-          <t>Rhein-Neckar-Kreis</t>
+          <t>Neckar-Odenwald-Kreis</t>
         </is>
       </c>
       <c r="C200" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_021</t>
+          <t>A_KREIS_020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="4">
-        <v>8231</v>
+        <v>8226</v>
       </c>
       <c r="B201" s="5" t="inlineStr">
         <is>
-          <t>Pforzheim, Stadt</t>
+          <t>Rhein-Neckar-Kreis</t>
         </is>
       </c>
       <c r="C201" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_022</t>
+          <t>A_KREIS_021</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="4">
-        <v>8235</v>
+        <v>8231</v>
       </c>
       <c r="B202" s="5" t="inlineStr">
         <is>
-          <t>Calw</t>
+          <t>Pforzheim, Stadt</t>
         </is>
       </c>
       <c r="C202" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_023</t>
+          <t>A_KREIS_022</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="4">
-        <v>8236</v>
+        <v>8235</v>
       </c>
       <c r="B203" s="5" t="inlineStr">
         <is>
-          <t>Enzkreis</t>
+          <t>Calw</t>
         </is>
       </c>
       <c r="C203" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_024</t>
+          <t>A_KREIS_023</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="4">
-        <v>8237</v>
+        <v>8236</v>
       </c>
       <c r="B204" s="5" t="inlineStr">
         <is>
-          <t>Freudenstadt</t>
+          <t>Enzkreis</t>
         </is>
       </c>
       <c r="C204" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_025</t>
+          <t>A_KREIS_024</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="4">
-        <v>8311</v>
+        <v>8237</v>
       </c>
       <c r="B205" s="5" t="inlineStr">
         <is>
-          <t>Freiburg im Breisgau, Stadt</t>
+          <t>Freudenstadt</t>
         </is>
       </c>
       <c r="C205" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_026</t>
+          <t>A_KREIS_025</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="4">
-        <v>8315</v>
+        <v>8311</v>
       </c>
       <c r="B206" s="5" t="inlineStr">
         <is>
-          <t>Breisgau-Hochschwarzwald</t>
+          <t>Freiburg im Breisgau, Stadt</t>
         </is>
       </c>
       <c r="C206" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_027</t>
+          <t>A_KREIS_026</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="4">
-        <v>8316</v>
+        <v>8315</v>
       </c>
       <c r="B207" s="5" t="inlineStr">
         <is>
-          <t>Emmendingen</t>
+          <t>Breisgau-Hochschwarzwald</t>
         </is>
       </c>
       <c r="C207" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_028</t>
+          <t>A_KREIS_027</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="4">
-        <v>8317</v>
+        <v>8316</v>
       </c>
       <c r="B208" s="5" t="inlineStr">
         <is>
-          <t>Ortenaukreis</t>
+          <t>Emmendingen</t>
         </is>
       </c>
       <c r="C208" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_029</t>
+          <t>A_KREIS_028</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="4">
-        <v>8325</v>
+        <v>8317</v>
       </c>
       <c r="B209" s="5" t="inlineStr">
         <is>
-          <t>Rottweil</t>
+          <t>Ortenaukreis</t>
         </is>
       </c>
       <c r="C209" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_030</t>
+          <t>A_KREIS_029</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="4">
-        <v>8326</v>
+        <v>8325</v>
       </c>
       <c r="B210" s="5" t="inlineStr">
         <is>
-          <t>Schwarzwald-Baar-Kreis</t>
+          <t>Rottweil</t>
         </is>
       </c>
       <c r="C210" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_031</t>
+          <t>A_KREIS_030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="4">
-        <v>8327</v>
+        <v>8326</v>
       </c>
       <c r="B211" s="5" t="inlineStr">
         <is>
-          <t>Tuttlingen</t>
+          <t>Schwarzwald-Baar-Kreis</t>
         </is>
       </c>
       <c r="C211" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_032</t>
+          <t>A_KREIS_031</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="212">
       <c r="A212" s="4">
-        <v>8335</v>
+        <v>8327</v>
       </c>
       <c r="B212" s="5" t="inlineStr">
         <is>
-          <t>Konstanz</t>
+          <t>Tuttlingen</t>
         </is>
       </c>
       <c r="C212" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_033</t>
+          <t>A_KREIS_032</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="4">
-        <v>8336</v>
+        <v>8335</v>
       </c>
       <c r="B213" s="5" t="inlineStr">
         <is>
-          <t>Lörrach</t>
+          <t>Konstanz</t>
         </is>
       </c>
       <c r="C213" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_034</t>
+          <t>A_KREIS_033</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="4">
-        <v>8337</v>
+        <v>8336</v>
       </c>
       <c r="B214" s="5" t="inlineStr">
         <is>
-          <t>Waldshut</t>
+          <t>Lörrach</t>
         </is>
       </c>
       <c r="C214" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_035</t>
+          <t>A_KREIS_034</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="4">
-        <v>8415</v>
+        <v>8337</v>
       </c>
       <c r="B215" s="5" t="inlineStr">
         <is>
-          <t>Reutlingen</t>
+          <t>Waldshut</t>
         </is>
       </c>
       <c r="C215" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_036</t>
+          <t>A_KREIS_035</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="4">
-        <v>8416</v>
+        <v>8415</v>
       </c>
       <c r="B216" s="5" t="inlineStr">
         <is>
-          <t>Tübingen</t>
+          <t>Reutlingen</t>
         </is>
       </c>
       <c r="C216" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_037</t>
+          <t>A_KREIS_036</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="4">
-        <v>8417</v>
+        <v>8416</v>
       </c>
       <c r="B217" s="5" t="inlineStr">
         <is>
-          <t>Zollernalbkreis</t>
+          <t>Tübingen</t>
         </is>
       </c>
       <c r="C217" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_038</t>
+          <t>A_KREIS_037</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="4">
-        <v>8421</v>
+        <v>8417</v>
       </c>
       <c r="B218" s="5" t="inlineStr">
         <is>
-          <t>Ulm, Stadt</t>
+          <t>Zollernalbkreis</t>
         </is>
       </c>
       <c r="C218" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_039</t>
+          <t>A_KREIS_038</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="4">
-        <v>8425</v>
+        <v>8421</v>
       </c>
       <c r="B219" s="5" t="inlineStr">
         <is>
-          <t>Alb-Donau-Kreis</t>
+          <t>Ulm, Stadt</t>
         </is>
       </c>
       <c r="C219" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_040</t>
+          <t>A_KREIS_039</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4">
-        <v>8426</v>
+        <v>8425</v>
       </c>
       <c r="B220" s="5" t="inlineStr">
         <is>
-          <t>Biberach</t>
+          <t>Alb-Donau-Kreis</t>
         </is>
       </c>
       <c r="C220" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_041</t>
+          <t>A_KREIS_040</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="4">
-        <v>8435</v>
+        <v>8426</v>
       </c>
       <c r="B221" s="5" t="inlineStr">
         <is>
-          <t>Bodenseekreis</t>
+          <t>Biberach</t>
         </is>
       </c>
       <c r="C221" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_042</t>
+          <t>A_KREIS_041</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="4">
-        <v>8436</v>
+        <v>8435</v>
       </c>
       <c r="B222" s="5" t="inlineStr">
         <is>
-          <t>Ravensburg</t>
+          <t>Bodenseekreis</t>
         </is>
       </c>
       <c r="C222" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_043</t>
+          <t>A_KREIS_042</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="4">
-        <v>8437</v>
+        <v>8436</v>
       </c>
       <c r="B223" s="5" t="inlineStr">
         <is>
-          <t>Sigmaringen</t>
+          <t>Ravensburg</t>
         </is>
       </c>
       <c r="C223" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_044</t>
+          <t>A_KREIS_043</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="4">
-        <v>9161</v>
+        <v>8437</v>
       </c>
       <c r="B224" s="5" t="inlineStr">
         <is>
-          <t>Ingolstadt, Stadt</t>
+          <t>Sigmaringen</t>
         </is>
       </c>
       <c r="C224" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_045</t>
+          <t>A_KREIS_044</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="4">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="B225" s="5" t="inlineStr">
         <is>
-          <t>München, Stadt</t>
+          <t>Ingolstadt, Stadt</t>
         </is>
       </c>
       <c r="C225" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_046</t>
+          <t>A_KREIS_045</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="4">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="B226" s="5" t="inlineStr">
         <is>
-          <t>Rosenheim, Stadt</t>
+          <t>München, Stadt</t>
         </is>
       </c>
       <c r="C226" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_047</t>
+          <t>A_KREIS_046</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="227">
       <c r="A227" s="4">
-        <v>9171</v>
+        <v>9163</v>
       </c>
       <c r="B227" s="5" t="inlineStr">
         <is>
-          <t>Altötting</t>
+          <t>Rosenheim, Stadt</t>
         </is>
       </c>
       <c r="C227" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_048</t>
+          <t>A_KREIS_047</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="228">
       <c r="A228" s="4">
-        <v>9172</v>
+        <v>9171</v>
       </c>
       <c r="B228" s="5" t="inlineStr">
         <is>
-          <t>Berchtesgadener Land</t>
+          <t>Altötting</t>
         </is>
       </c>
       <c r="C228" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_049</t>
+          <t>A_KREIS_048</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="4">
-        <v>9173</v>
+        <v>9172</v>
       </c>
       <c r="B229" s="5" t="inlineStr">
         <is>
-          <t>Bad Tölz-Wolfratshausen</t>
+          <t>Berchtesgadener Land</t>
         </is>
       </c>
       <c r="C229" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_050</t>
+          <t>A_KREIS_049</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="230">
       <c r="A230" s="4">
-        <v>9174</v>
+        <v>9173</v>
       </c>
       <c r="B230" s="5" t="inlineStr">
         <is>
-          <t>Dachau</t>
+          <t>Bad Tölz-Wolfratshausen</t>
         </is>
       </c>
       <c r="C230" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_051</t>
+          <t>A_KREIS_050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="231">
       <c r="A231" s="4">
-        <v>9175</v>
+        <v>9174</v>
       </c>
       <c r="B231" s="5" t="inlineStr">
         <is>
-          <t>Ebersberg</t>
+          <t>Dachau</t>
         </is>
       </c>
       <c r="C231" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_052</t>
+          <t>A_KREIS_051</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="232">
       <c r="A232" s="4">
-        <v>9176</v>
+        <v>9175</v>
       </c>
       <c r="B232" s="5" t="inlineStr">
         <is>
-          <t>Eichstätt</t>
+          <t>Ebersberg</t>
         </is>
       </c>
       <c r="C232" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_053</t>
+          <t>A_KREIS_052</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="233">
       <c r="A233" s="4">
-        <v>9177</v>
+        <v>9176</v>
       </c>
       <c r="B233" s="5" t="inlineStr">
         <is>
-          <t>Erding</t>
+          <t>Eichstätt</t>
         </is>
       </c>
       <c r="C233" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_054</t>
+          <t>A_KREIS_053</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="234">
       <c r="A234" s="4">
-        <v>9178</v>
+        <v>9177</v>
       </c>
       <c r="B234" s="5" t="inlineStr">
         <is>
-          <t>Freising</t>
+          <t>Erding</t>
         </is>
       </c>
       <c r="C234" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_055</t>
+          <t>A_KREIS_054</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="235">
       <c r="A235" s="4">
-        <v>9179</v>
+        <v>9178</v>
       </c>
       <c r="B235" s="5" t="inlineStr">
         <is>
-          <t>Fürstenfeldbruck</t>
+          <t>Freising</t>
         </is>
       </c>
       <c r="C235" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_056</t>
+          <t>A_KREIS_055</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="236">
       <c r="A236" s="4">
-        <v>9180</v>
+        <v>9179</v>
       </c>
       <c r="B236" s="5" t="inlineStr">
         <is>
-          <t>Garmisch-Partenkirchen</t>
+          <t>Fürstenfeldbruck</t>
         </is>
       </c>
       <c r="C236" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_057</t>
+          <t>A_KREIS_056</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="237">
       <c r="A237" s="4">
-        <v>9181</v>
+        <v>9180</v>
       </c>
       <c r="B237" s="5" t="inlineStr">
         <is>
-          <t>Landsberg am Lech</t>
+          <t>Garmisch-Partenkirchen</t>
         </is>
       </c>
       <c r="C237" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_058</t>
+          <t>A_KREIS_057</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="238">
       <c r="A238" s="4">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="B238" s="5" t="inlineStr">
         <is>
-          <t>Miesbach</t>
+          <t>Landsberg am Lech</t>
         </is>
       </c>
       <c r="C238" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_059</t>
+          <t>A_KREIS_058</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="239">
       <c r="A239" s="4">
-        <v>9183</v>
+        <v>9182</v>
       </c>
       <c r="B239" s="5" t="inlineStr">
         <is>
-          <t>Mühldorf am Inn</t>
+          <t>Miesbach</t>
         </is>
       </c>
       <c r="C239" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_060</t>
+          <t>A_KREIS_059</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="240">
       <c r="A240" s="4">
-        <v>9184</v>
+        <v>9183</v>
       </c>
       <c r="B240" s="5" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Mühldorf am Inn</t>
         </is>
       </c>
       <c r="C240" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_061</t>
+          <t>A_KREIS_060</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="241">
       <c r="A241" s="4">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="B241" s="5" t="inlineStr">
         <is>
-          <t>Neuburg-Schrobenhausen</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C241" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_062</t>
+          <t>A_KREIS_061</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="242">
       <c r="A242" s="4">
-        <v>9186</v>
+        <v>9185</v>
       </c>
       <c r="B242" s="5" t="inlineStr">
         <is>
-          <t>Pfaffenhofen an der Ilm</t>
+          <t>Neuburg-Schrobenhausen</t>
         </is>
       </c>
       <c r="C242" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_063</t>
+          <t>A_KREIS_062</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="243">
       <c r="A243" s="4">
-        <v>9187</v>
+        <v>9186</v>
       </c>
       <c r="B243" s="5" t="inlineStr">
         <is>
-          <t>Rosenheim</t>
+          <t>Pfaffenhofen an der Ilm</t>
         </is>
       </c>
       <c r="C243" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_064</t>
+          <t>A_KREIS_063</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="244">
       <c r="A244" s="4">
-        <v>9188</v>
+        <v>9187</v>
       </c>
       <c r="B244" s="5" t="inlineStr">
         <is>
-          <t>Starnberg</t>
+          <t>Rosenheim</t>
         </is>
       </c>
       <c r="C244" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_065</t>
+          <t>A_KREIS_064</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="245">
       <c r="A245" s="4">
-        <v>9189</v>
+        <v>9188</v>
       </c>
       <c r="B245" s="5" t="inlineStr">
         <is>
-          <t>Traunstein</t>
+          <t>Starnberg</t>
         </is>
       </c>
       <c r="C245" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_066</t>
+          <t>A_KREIS_065</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="246">
       <c r="A246" s="4">
-        <v>9190</v>
+        <v>9189</v>
       </c>
       <c r="B246" s="5" t="inlineStr">
         <is>
-          <t>Weilheim-Schongau</t>
+          <t>Traunstein</t>
         </is>
       </c>
       <c r="C246" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_067</t>
+          <t>A_KREIS_066</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="247">
       <c r="A247" s="4">
-        <v>9261</v>
+        <v>9190</v>
       </c>
       <c r="B247" s="5" t="inlineStr">
         <is>
-          <t>Landshut, Stadt</t>
+          <t>Weilheim-Schongau</t>
         </is>
       </c>
       <c r="C247" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_068</t>
+          <t>A_KREIS_067</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="248">
       <c r="A248" s="4">
-        <v>9262</v>
+        <v>9261</v>
       </c>
       <c r="B248" s="5" t="inlineStr">
         <is>
-          <t>Passau, Stadt</t>
+          <t>Landshut, Stadt</t>
         </is>
       </c>
       <c r="C248" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_069</t>
+          <t>A_KREIS_068</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="249">
       <c r="A249" s="4">
-        <v>9263</v>
+        <v>9262</v>
       </c>
       <c r="B249" s="5" t="inlineStr">
         <is>
-          <t>Straubing, Stadt</t>
+          <t>Passau, Stadt</t>
         </is>
       </c>
       <c r="C249" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_070</t>
+          <t>A_KREIS_069</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="250">
       <c r="A250" s="4">
-        <v>9271</v>
+        <v>9263</v>
       </c>
       <c r="B250" s="5" t="inlineStr">
         <is>
-          <t>Deggendorf</t>
+          <t>Straubing, Stadt</t>
         </is>
       </c>
       <c r="C250" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_071</t>
+          <t>A_KREIS_070</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="251">
       <c r="A251" s="4">
-        <v>9272</v>
+        <v>9271</v>
       </c>
       <c r="B251" s="5" t="inlineStr">
         <is>
-          <t>Freyung-Grafenau</t>
+          <t>Deggendorf</t>
         </is>
       </c>
       <c r="C251" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_072</t>
+          <t>A_KREIS_071</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="252">
       <c r="A252" s="4">
-        <v>9273</v>
+        <v>9272</v>
       </c>
       <c r="B252" s="5" t="inlineStr">
         <is>
-          <t>Kelheim</t>
+          <t>Freyung-Grafenau</t>
         </is>
       </c>
       <c r="C252" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_073</t>
+          <t>A_KREIS_072</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="253">
       <c r="A253" s="4">
-        <v>9274</v>
+        <v>9273</v>
       </c>
       <c r="B253" s="5" t="inlineStr">
         <is>
-          <t>Landshut</t>
+          <t>Kelheim</t>
         </is>
       </c>
       <c r="C253" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_074</t>
+          <t>A_KREIS_073</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="254">
       <c r="A254" s="4">
-        <v>9275</v>
+        <v>9274</v>
       </c>
       <c r="B254" s="5" t="inlineStr">
         <is>
-          <t>Passau</t>
+          <t>Landshut</t>
         </is>
       </c>
       <c r="C254" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_075</t>
+          <t>A_KREIS_074</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="255">
       <c r="A255" s="4">
-        <v>9276</v>
+        <v>9275</v>
       </c>
       <c r="B255" s="5" t="inlineStr">
         <is>
-          <t>Regen</t>
+          <t>Passau</t>
         </is>
       </c>
       <c r="C255" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_076</t>
+          <t>A_KREIS_075</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="4">
-        <v>9277</v>
+        <v>9276</v>
       </c>
       <c r="B256" s="5" t="inlineStr">
         <is>
-          <t>Rottal-Inn</t>
+          <t>Regen</t>
         </is>
       </c>
       <c r="C256" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_077</t>
+          <t>A_KREIS_076</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="257">
       <c r="A257" s="4">
-        <v>9278</v>
+        <v>9277</v>
       </c>
       <c r="B257" s="5" t="inlineStr">
         <is>
-          <t>Straubing-Bogen</t>
+          <t>Rottal-Inn</t>
         </is>
       </c>
       <c r="C257" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_078</t>
+          <t>A_KREIS_077</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="4">
-        <v>9279</v>
+        <v>9278</v>
       </c>
       <c r="B258" s="5" t="inlineStr">
         <is>
-          <t>Dingolfing-Landau</t>
+          <t>Straubing-Bogen</t>
         </is>
       </c>
       <c r="C258" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_079</t>
+          <t>A_KREIS_078</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="259">
       <c r="A259" s="4">
-        <v>9361</v>
+        <v>9279</v>
       </c>
       <c r="B259" s="5" t="inlineStr">
         <is>
-          <t>Amberg, Stadt</t>
+          <t>Dingolfing-Landau</t>
         </is>
       </c>
       <c r="C259" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_080</t>
+          <t>A_KREIS_079</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="260">
       <c r="A260" s="4">
-        <v>9362</v>
+        <v>9361</v>
       </c>
       <c r="B260" s="5" t="inlineStr">
         <is>
-          <t>Regensburg, Stadt</t>
+          <t>Amberg, Stadt</t>
         </is>
       </c>
       <c r="C260" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_081</t>
+          <t>A_KREIS_080</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="261">
       <c r="A261" s="4">
-        <v>9363</v>
+        <v>9362</v>
       </c>
       <c r="B261" s="5" t="inlineStr">
         <is>
-          <t>Weiden in der Oberpfalz, Stadt</t>
+          <t>Regensburg, Stadt</t>
         </is>
       </c>
       <c r="C261" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_082</t>
+          <t>A_KREIS_081</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="4">
-        <v>9371</v>
+        <v>9363</v>
       </c>
       <c r="B262" s="5" t="inlineStr">
         <is>
-          <t>Amberg-Sulzbach</t>
+          <t>Weiden in der Oberpfalz, Stadt</t>
         </is>
       </c>
       <c r="C262" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_083</t>
+          <t>A_KREIS_082</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="4">
-        <v>9372</v>
+        <v>9371</v>
       </c>
       <c r="B263" s="5" t="inlineStr">
         <is>
-          <t>Cham</t>
+          <t>Amberg-Sulzbach</t>
         </is>
       </c>
       <c r="C263" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_084</t>
+          <t>A_KREIS_083</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="264">
       <c r="A264" s="4">
-        <v>9373</v>
+        <v>9372</v>
       </c>
       <c r="B264" s="5" t="inlineStr">
         <is>
-          <t>Neumarkt in der Oberpfalz</t>
+          <t>Cham</t>
         </is>
       </c>
       <c r="C264" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_085</t>
+          <t>A_KREIS_084</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="4">
-        <v>9374</v>
+        <v>9373</v>
       </c>
       <c r="B265" s="5" t="inlineStr">
         <is>
-          <t>Neustadt an der Waldnaab</t>
+          <t>Neumarkt in der Oberpfalz</t>
         </is>
       </c>
       <c r="C265" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_086</t>
+          <t>A_KREIS_085</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="266">
       <c r="A266" s="4">
-        <v>9375</v>
+        <v>9374</v>
       </c>
       <c r="B266" s="5" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Neustadt an der Waldnaab</t>
         </is>
       </c>
       <c r="C266" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_087</t>
+          <t>A_KREIS_086</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="4">
-        <v>9376</v>
+        <v>9375</v>
       </c>
       <c r="B267" s="5" t="inlineStr">
         <is>
-          <t>Schwandorf</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="C267" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_088</t>
+          <t>A_KREIS_087</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="4">
-        <v>9377</v>
+        <v>9376</v>
       </c>
       <c r="B268" s="5" t="inlineStr">
         <is>
-          <t>Tirschenreuth</t>
+          <t>Schwandorf</t>
         </is>
       </c>
       <c r="C268" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_089</t>
+          <t>A_KREIS_088</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="4">
-        <v>9461</v>
+        <v>9377</v>
       </c>
       <c r="B269" s="5" t="inlineStr">
         <is>
-          <t>Bamberg, Stadt</t>
+          <t>Tirschenreuth</t>
         </is>
       </c>
       <c r="C269" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_090</t>
+          <t>A_KREIS_089</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="270">
       <c r="A270" s="4">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="B270" s="5" t="inlineStr">
         <is>
-          <t>Bayreuth, Stadt</t>
+          <t>Bamberg, Stadt</t>
         </is>
       </c>
       <c r="C270" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_091</t>
+          <t>A_KREIS_090</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="4">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="B271" s="5" t="inlineStr">
         <is>
-          <t>Coburg, Stadt</t>
+          <t>Bayreuth, Stadt</t>
         </is>
       </c>
       <c r="C271" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_092</t>
+          <t>A_KREIS_091</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="4">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="B272" s="5" t="inlineStr">
         <is>
-          <t>Hof, Stadt</t>
+          <t>Coburg, Stadt</t>
         </is>
       </c>
       <c r="C272" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_093</t>
+          <t>A_KREIS_092</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="273">
       <c r="A273" s="4">
-        <v>9471</v>
+        <v>9464</v>
       </c>
       <c r="B273" s="5" t="inlineStr">
         <is>
-          <t>Bamberg</t>
+          <t>Hof, Stadt</t>
         </is>
       </c>
       <c r="C273" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_094</t>
+          <t>A_KREIS_093</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="274">
       <c r="A274" s="4">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="B274" s="5" t="inlineStr">
         <is>
-          <t>Bayreuth</t>
+          <t>Bamberg</t>
         </is>
       </c>
       <c r="C274" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_095</t>
+          <t>A_KREIS_094</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="275">
       <c r="A275" s="4">
-        <v>9473</v>
+        <v>9472</v>
       </c>
       <c r="B275" s="5" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Bayreuth</t>
         </is>
       </c>
       <c r="C275" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_096</t>
+          <t>A_KREIS_095</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="276">
       <c r="A276" s="4">
-        <v>9474</v>
+        <v>9473</v>
       </c>
       <c r="B276" s="5" t="inlineStr">
         <is>
-          <t>Forchheim</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="C276" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_097</t>
+          <t>A_KREIS_096</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="277">
       <c r="A277" s="4">
-        <v>9475</v>
+        <v>9474</v>
       </c>
       <c r="B277" s="5" t="inlineStr">
         <is>
-          <t>Hof</t>
+          <t>Forchheim</t>
         </is>
       </c>
       <c r="C277" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_098</t>
+          <t>A_KREIS_097</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="278">
       <c r="A278" s="4">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="B278" s="5" t="inlineStr">
         <is>
-          <t>Kronach</t>
+          <t>Hof</t>
         </is>
       </c>
       <c r="C278" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_099</t>
+          <t>A_KREIS_098</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="279">
       <c r="A279" s="4">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="B279" s="5" t="inlineStr">
         <is>
-          <t>Kulmbach</t>
+          <t>Kronach</t>
         </is>
       </c>
       <c r="C279" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_100</t>
+          <t>A_KREIS_099</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="280">
       <c r="A280" s="4">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="B280" s="5" t="inlineStr">
         <is>
-          <t>Lichtenfels</t>
+          <t>Kulmbach</t>
         </is>
       </c>
       <c r="C280" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_101</t>
+          <t>A_KREIS_100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="281">
       <c r="A281" s="4">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="B281" s="5" t="inlineStr">
         <is>
-          <t>Wunsiedel im Fichtelgebirge</t>
+          <t>Lichtenfels</t>
         </is>
       </c>
       <c r="C281" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_102</t>
+          <t>A_KREIS_101</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="282">
       <c r="A282" s="4">
-        <v>9561</v>
+        <v>9479</v>
       </c>
       <c r="B282" s="5" t="inlineStr">
         <is>
-          <t>Ansbach, Stadt</t>
+          <t>Wunsiedel im Fichtelgebirge</t>
         </is>
       </c>
       <c r="C282" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_103</t>
+          <t>A_KREIS_102</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="283">
       <c r="A283" s="4">
-        <v>9562</v>
+        <v>9561</v>
       </c>
       <c r="B283" s="5" t="inlineStr">
         <is>
-          <t>Erlangen, Stadt</t>
+          <t>Ansbach, Stadt</t>
         </is>
       </c>
       <c r="C283" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_104</t>
+          <t>A_KREIS_103</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="284">
       <c r="A284" s="4">
-        <v>9563</v>
+        <v>9562</v>
       </c>
       <c r="B284" s="5" t="inlineStr">
         <is>
-          <t>Fürth, Stadt</t>
+          <t>Erlangen, Stadt</t>
         </is>
       </c>
       <c r="C284" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_105</t>
+          <t>A_KREIS_104</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="285">
       <c r="A285" s="4">
-        <v>9564</v>
+        <v>9563</v>
       </c>
       <c r="B285" s="5" t="inlineStr">
         <is>
-          <t>Nürnberg, Stadt</t>
+          <t>Fürth, Stadt</t>
         </is>
       </c>
       <c r="C285" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_106</t>
+          <t>A_KREIS_105</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="286">
       <c r="A286" s="4">
-        <v>9565</v>
+        <v>9564</v>
       </c>
       <c r="B286" s="5" t="inlineStr">
         <is>
-          <t>Schwabach, Stadt</t>
+          <t>Nürnberg, Stadt</t>
         </is>
       </c>
       <c r="C286" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_107</t>
+          <t>A_KREIS_106</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="287">
       <c r="A287" s="4">
-        <v>9571</v>
+        <v>9565</v>
       </c>
       <c r="B287" s="5" t="inlineStr">
         <is>
-          <t>Ansbach</t>
+          <t>Schwabach, Stadt</t>
         </is>
       </c>
       <c r="C287" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_108</t>
+          <t>A_KREIS_107</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="288">
       <c r="A288" s="4">
-        <v>9572</v>
+        <v>9571</v>
       </c>
       <c r="B288" s="5" t="inlineStr">
         <is>
-          <t>Erlangen-Höchstadt</t>
+          <t>Ansbach</t>
         </is>
       </c>
       <c r="C288" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_109</t>
+          <t>A_KREIS_108</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="289">
       <c r="A289" s="4">
-        <v>9573</v>
+        <v>9572</v>
       </c>
       <c r="B289" s="5" t="inlineStr">
         <is>
-          <t>Fürth</t>
+          <t>Erlangen-Höchstadt</t>
         </is>
       </c>
       <c r="C289" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_110</t>
+          <t>A_KREIS_109</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="290">
       <c r="A290" s="4">
-        <v>9574</v>
+        <v>9573</v>
       </c>
       <c r="B290" s="5" t="inlineStr">
         <is>
-          <t>Nürnberger Land</t>
+          <t>Fürth</t>
         </is>
       </c>
       <c r="C290" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_111</t>
+          <t>A_KREIS_110</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="291">
       <c r="A291" s="4">
-        <v>9575</v>
+        <v>9574</v>
       </c>
       <c r="B291" s="5" t="inlineStr">
         <is>
-          <t>Neustadt an der Aisch-Bad Windsheim</t>
+          <t>Nürnberger Land</t>
         </is>
       </c>
       <c r="C291" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_112</t>
+          <t>A_KREIS_111</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="292">
       <c r="A292" s="4">
-        <v>9576</v>
+        <v>9575</v>
       </c>
       <c r="B292" s="5" t="inlineStr">
         <is>
-          <t>Roth</t>
+          <t>Neustadt an der Aisch-Bad Windsheim</t>
         </is>
       </c>
       <c r="C292" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_113</t>
+          <t>A_KREIS_112</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="293">
       <c r="A293" s="4">
-        <v>9577</v>
+        <v>9576</v>
       </c>
       <c r="B293" s="5" t="inlineStr">
         <is>
-          <t>Weißenburg-Gunzenhausen</t>
+          <t>Roth</t>
         </is>
       </c>
       <c r="C293" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_114</t>
+          <t>A_KREIS_113</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="294">
       <c r="A294" s="4">
-        <v>9661</v>
+        <v>9577</v>
       </c>
       <c r="B294" s="5" t="inlineStr">
         <is>
-          <t>Aschaffenburg, Stadt</t>
+          <t>Weißenburg-Gunzenhausen</t>
         </is>
       </c>
       <c r="C294" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_115</t>
+          <t>A_KREIS_114</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="295">
       <c r="A295" s="4">
-        <v>9662</v>
+        <v>9661</v>
       </c>
       <c r="B295" s="5" t="inlineStr">
         <is>
-          <t>Schweinfurt, Stadt</t>
+          <t>Aschaffenburg, Stadt</t>
         </is>
       </c>
       <c r="C295" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_116</t>
+          <t>A_KREIS_115</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="296">
       <c r="A296" s="4">
-        <v>9663</v>
+        <v>9662</v>
       </c>
       <c r="B296" s="5" t="inlineStr">
         <is>
-          <t>Würzburg, Stadt</t>
+          <t>Schweinfurt, Stadt</t>
         </is>
       </c>
       <c r="C296" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_117</t>
+          <t>A_KREIS_116</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="297">
       <c r="A297" s="4">
-        <v>9671</v>
+        <v>9663</v>
       </c>
       <c r="B297" s="5" t="inlineStr">
         <is>
-          <t>Aschaffenburg</t>
+          <t>Würzburg, Stadt</t>
         </is>
       </c>
       <c r="C297" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_118</t>
+          <t>A_KREIS_117</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="298">
       <c r="A298" s="4">
-        <v>9672</v>
+        <v>9671</v>
       </c>
       <c r="B298" s="5" t="inlineStr">
         <is>
-          <t>Bad Kissingen</t>
+          <t>Aschaffenburg</t>
         </is>
       </c>
       <c r="C298" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_119</t>
+          <t>A_KREIS_118</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="299">
       <c r="A299" s="4">
-        <v>9673</v>
+        <v>9672</v>
       </c>
       <c r="B299" s="5" t="inlineStr">
         <is>
-          <t>Rhön-Grabfeld</t>
+          <t>Bad Kissingen</t>
         </is>
       </c>
       <c r="C299" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_120</t>
+          <t>A_KREIS_119</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="300">
       <c r="A300" s="4">
-        <v>9674</v>
+        <v>9673</v>
       </c>
       <c r="B300" s="5" t="inlineStr">
         <is>
-          <t>Haßberge</t>
+          <t>Rhön-Grabfeld</t>
         </is>
       </c>
       <c r="C300" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_121</t>
+          <t>A_KREIS_120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="301">
       <c r="A301" s="4">
-        <v>9675</v>
+        <v>9674</v>
       </c>
       <c r="B301" s="5" t="inlineStr">
         <is>
-          <t>Kitzingen</t>
+          <t>Haßberge</t>
         </is>
       </c>
       <c r="C301" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_122</t>
+          <t>A_KREIS_121</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="302">
       <c r="A302" s="4">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="B302" s="5" t="inlineStr">
         <is>
-          <t>Miltenberg</t>
+          <t>Kitzingen</t>
         </is>
       </c>
       <c r="C302" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_123</t>
+          <t>A_KREIS_122</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="303">
       <c r="A303" s="4">
-        <v>9677</v>
+        <v>9676</v>
       </c>
       <c r="B303" s="5" t="inlineStr">
         <is>
-          <t>Main-Spessart</t>
+          <t>Miltenberg</t>
         </is>
       </c>
       <c r="C303" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_124</t>
+          <t>A_KREIS_123</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="304">
       <c r="A304" s="4">
-        <v>9678</v>
+        <v>9677</v>
       </c>
       <c r="B304" s="5" t="inlineStr">
         <is>
-          <t>Schweinfurt</t>
+          <t>Main-Spessart</t>
         </is>
       </c>
       <c r="C304" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_125</t>
+          <t>A_KREIS_124</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="305">
       <c r="A305" s="4">
-        <v>9679</v>
+        <v>9678</v>
       </c>
       <c r="B305" s="5" t="inlineStr">
         <is>
-          <t>Würzburg</t>
+          <t>Schweinfurt</t>
         </is>
       </c>
       <c r="C305" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_126</t>
+          <t>A_KREIS_125</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="306">
       <c r="A306" s="4">
-        <v>9761</v>
+        <v>9679</v>
       </c>
       <c r="B306" s="5" t="inlineStr">
         <is>
-          <t>Augsburg, Stadt</t>
+          <t>Würzburg</t>
         </is>
       </c>
       <c r="C306" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_127</t>
+          <t>A_KREIS_126</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="307">
       <c r="A307" s="4">
-        <v>9762</v>
+        <v>9761</v>
       </c>
       <c r="B307" s="5" t="inlineStr">
         <is>
-          <t>Kaufbeuren, Stadt</t>
+          <t>Augsburg, Stadt</t>
         </is>
       </c>
       <c r="C307" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_128</t>
+          <t>A_KREIS_127</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="308">
       <c r="A308" s="4">
-        <v>9763</v>
+        <v>9762</v>
       </c>
       <c r="B308" s="5" t="inlineStr">
         <is>
-          <t>Kempten (Allgäu), Stadt</t>
+          <t>Kaufbeuren, Stadt</t>
         </is>
       </c>
       <c r="C308" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_129</t>
+          <t>A_KREIS_128</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="309">
       <c r="A309" s="4">
-        <v>9764</v>
+        <v>9763</v>
       </c>
       <c r="B309" s="5" t="inlineStr">
         <is>
-          <t>Memmingen, Stadt</t>
+          <t>Kempten (Allgäu), Stadt</t>
         </is>
       </c>
       <c r="C309" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_130</t>
+          <t>A_KREIS_129</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="310">
       <c r="A310" s="4">
-        <v>9771</v>
+        <v>9764</v>
       </c>
       <c r="B310" s="5" t="inlineStr">
         <is>
-          <t>Aichach-Friedberg</t>
+          <t>Memmingen, Stadt</t>
         </is>
       </c>
       <c r="C310" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_131</t>
+          <t>A_KREIS_130</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="311">
       <c r="A311" s="4">
-        <v>9772</v>
+        <v>9771</v>
       </c>
       <c r="B311" s="5" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Aichach-Friedberg</t>
         </is>
       </c>
       <c r="C311" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_132</t>
+          <t>A_KREIS_131</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="312">
       <c r="A312" s="4">
-        <v>9773</v>
+        <v>9772</v>
       </c>
       <c r="B312" s="5" t="inlineStr">
         <is>
-          <t>Dillingen an der Donau</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C312" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_133</t>
+          <t>A_KREIS_132</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="313">
       <c r="A313" s="4">
-        <v>9774</v>
+        <v>9773</v>
       </c>
       <c r="B313" s="5" t="inlineStr">
         <is>
-          <t>Günzburg</t>
+          <t>Dillingen an der Donau</t>
         </is>
       </c>
       <c r="C313" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_134</t>
+          <t>A_KREIS_133</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="314">
       <c r="A314" s="4">
-        <v>9775</v>
+        <v>9774</v>
       </c>
       <c r="B314" s="5" t="inlineStr">
         <is>
-          <t>Neu-Ulm</t>
+          <t>Günzburg</t>
         </is>
       </c>
       <c r="C314" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_135</t>
+          <t>A_KREIS_134</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="315">
       <c r="A315" s="4">
-        <v>9776</v>
+        <v>9775</v>
       </c>
       <c r="B315" s="5" t="inlineStr">
         <is>
-          <t>Lindau (Bodensee)</t>
+          <t>Neu-Ulm</t>
         </is>
       </c>
       <c r="C315" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_136</t>
+          <t>A_KREIS_135</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="316">
       <c r="A316" s="4">
-        <v>9777</v>
+        <v>9776</v>
       </c>
       <c r="B316" s="5" t="inlineStr">
         <is>
-          <t>Ostallgäu</t>
+          <t>Lindau (Bodensee)</t>
         </is>
       </c>
       <c r="C316" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_137</t>
+          <t>A_KREIS_136</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="317">
       <c r="A317" s="4">
-        <v>9778</v>
+        <v>9777</v>
       </c>
       <c r="B317" s="5" t="inlineStr">
         <is>
-          <t>Unterallgäu</t>
+          <t>Ostallgäu</t>
         </is>
       </c>
       <c r="C317" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_138</t>
+          <t>A_KREIS_137</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="318">
       <c r="A318" s="4">
-        <v>9779</v>
+        <v>9778</v>
       </c>
       <c r="B318" s="5" t="inlineStr">
         <is>
-          <t>Donau-Ries</t>
+          <t>Unterallgäu</t>
         </is>
       </c>
       <c r="C318" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_139</t>
+          <t>A_KREIS_138</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="319">
       <c r="A319" s="4">
-        <v>9780</v>
+        <v>9779</v>
       </c>
       <c r="B319" s="5" t="inlineStr">
         <is>
-          <t>Oberallgäu</t>
+          <t>Donau-Ries</t>
         </is>
       </c>
       <c r="C319" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_140</t>
+          <t>A_KREIS_139</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="320">
       <c r="A320" s="4">
-        <v>10041</v>
+        <v>9780</v>
       </c>
       <c r="B320" s="5" t="inlineStr">
         <is>
-          <t>Saarbrücken, Regionalverband</t>
+          <t>Oberallgäu</t>
         </is>
       </c>
       <c r="C320" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_332</t>
+          <t>A_KREIS_140</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="321">
       <c r="A321" s="4">
-        <v>10042</v>
+        <v>10041</v>
       </c>
       <c r="B321" s="5" t="inlineStr">
         <is>
-          <t>Merzig-Wadern</t>
+          <t>Saarbrücken, Regionalverband</t>
         </is>
       </c>
       <c r="C321" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_333</t>
+          <t>A_KREIS_332</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="322">
       <c r="A322" s="4">
-        <v>10043</v>
+        <v>10042</v>
       </c>
       <c r="B322" s="5" t="inlineStr">
         <is>
-          <t>Neunkirchen</t>
+          <t>Merzig-Wadern</t>
         </is>
       </c>
       <c r="C322" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_334</t>
+          <t>A_KREIS_333</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="323">
       <c r="A323" s="4">
-        <v>10044</v>
+        <v>10043</v>
       </c>
       <c r="B323" s="5" t="inlineStr">
         <is>
-          <t>Saarlouis</t>
+          <t>Neunkirchen</t>
         </is>
       </c>
       <c r="C323" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_335</t>
+          <t>A_KREIS_334</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="324">
       <c r="A324" s="4">
-        <v>10045</v>
+        <v>10044</v>
       </c>
       <c r="B324" s="5" t="inlineStr">
         <is>
-          <t>Saarpfalz-Kreis</t>
+          <t>Saarlouis</t>
         </is>
       </c>
       <c r="C324" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_336</t>
+          <t>A_KREIS_335</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="325">
       <c r="A325" s="4">
-        <v>10046</v>
+        <v>10045</v>
       </c>
       <c r="B325" s="5" t="inlineStr">
         <is>
-          <t>St. Wendel</t>
+          <t>Saarpfalz-Kreis</t>
         </is>
       </c>
       <c r="C325" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_337</t>
+          <t>A_KREIS_336</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="326">
       <c r="A326" s="4">
-        <v>11000</v>
+        <v>10046</v>
       </c>
       <c r="B326" s="5" t="inlineStr">
         <is>
-          <t>Berlin, Stadt</t>
+          <t>St. Wendel</t>
         </is>
       </c>
       <c r="C326" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_141</t>
+          <t>A_KREIS_337</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="327">
       <c r="A327" s="4">
-        <v>12051</v>
+        <v>11000</v>
       </c>
       <c r="B327" s="5" t="inlineStr">
         <is>
-          <t>Brandenburg an der Havel, Stadt</t>
+          <t>Berlin, Stadt</t>
         </is>
       </c>
       <c r="C327" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_142</t>
+          <t>A_KREIS_141</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="328">
       <c r="A328" s="4">
-        <v>12052</v>
+        <v>12051</v>
       </c>
       <c r="B328" s="5" t="inlineStr">
         <is>
-          <t>Cottbus, Stadt</t>
+          <t>Brandenburg an der Havel, Stadt</t>
         </is>
       </c>
       <c r="C328" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_143</t>
+          <t>A_KREIS_142</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="329">
       <c r="A329" s="4">
-        <v>12053</v>
+        <v>12052</v>
       </c>
       <c r="B329" s="5" t="inlineStr">
         <is>
-          <t>Frankfurt (Oder), Stadt</t>
+          <t>Cottbus, Stadt</t>
         </is>
       </c>
       <c r="C329" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_144</t>
+          <t>A_KREIS_143</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="330">
       <c r="A330" s="4">
-        <v>12054</v>
+        <v>12053</v>
       </c>
       <c r="B330" s="5" t="inlineStr">
         <is>
-          <t>Potsdam, Stadt</t>
+          <t>Frankfurt (Oder), Stadt</t>
         </is>
       </c>
       <c r="C330" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_145</t>
+          <t>A_KREIS_144</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="331">
       <c r="A331" s="4">
-        <v>12060</v>
+        <v>12054</v>
       </c>
       <c r="B331" s="5" t="inlineStr">
         <is>
-          <t>Barnim</t>
+          <t>Potsdam, Stadt</t>
         </is>
       </c>
       <c r="C331" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_146</t>
+          <t>A_KREIS_145</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="332">
       <c r="A332" s="4">
-        <v>12061</v>
+        <v>12060</v>
       </c>
       <c r="B332" s="5" t="inlineStr">
         <is>
-          <t>Dahme-Spreewald</t>
+          <t>Barnim</t>
         </is>
       </c>
       <c r="C332" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_147</t>
+          <t>A_KREIS_146</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="333">
       <c r="A333" s="4">
-        <v>12062</v>
+        <v>12061</v>
       </c>
       <c r="B333" s="5" t="inlineStr">
         <is>
-          <t>Elbe-Elster</t>
+          <t>Dahme-Spreewald</t>
         </is>
       </c>
       <c r="C333" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_148</t>
+          <t>A_KREIS_147</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="334">
       <c r="A334" s="4">
-        <v>12063</v>
+        <v>12062</v>
       </c>
       <c r="B334" s="5" t="inlineStr">
         <is>
-          <t>Havelland</t>
+          <t>Elbe-Elster</t>
         </is>
       </c>
       <c r="C334" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_149</t>
+          <t>A_KREIS_148</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="335">
       <c r="A335" s="4">
-        <v>12064</v>
+        <v>12063</v>
       </c>
       <c r="B335" s="5" t="inlineStr">
         <is>
-          <t>Märkisch-Oderland</t>
+          <t>Havelland</t>
         </is>
       </c>
       <c r="C335" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_150</t>
+          <t>A_KREIS_149</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="336">
       <c r="A336" s="4">
-        <v>12065</v>
+        <v>12064</v>
       </c>
       <c r="B336" s="5" t="inlineStr">
         <is>
-          <t>Oberhavel</t>
+          <t>Märkisch-Oderland</t>
         </is>
       </c>
       <c r="C336" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_151</t>
+          <t>A_KREIS_150</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="337">
       <c r="A337" s="4">
-        <v>12066</v>
+        <v>12065</v>
       </c>
       <c r="B337" s="5" t="inlineStr">
         <is>
-          <t>Oberspreewald-Lausitz</t>
+          <t>Oberhavel</t>
         </is>
       </c>
       <c r="C337" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_152</t>
+          <t>A_KREIS_151</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="338">
       <c r="A338" s="4">
-        <v>12067</v>
+        <v>12066</v>
       </c>
       <c r="B338" s="5" t="inlineStr">
         <is>
-          <t>Oder-Spree</t>
+          <t>Oberspreewald-Lausitz</t>
         </is>
       </c>
       <c r="C338" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_153</t>
+          <t>A_KREIS_152</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="339">
       <c r="A339" s="4">
-        <v>12068</v>
+        <v>12067</v>
       </c>
       <c r="B339" s="5" t="inlineStr">
         <is>
-          <t>Ostprignitz-Ruppin</t>
+          <t>Oder-Spree</t>
         </is>
       </c>
       <c r="C339" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_154</t>
+          <t>A_KREIS_153</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="340">
       <c r="A340" s="4">
-        <v>12069</v>
+        <v>12068</v>
       </c>
       <c r="B340" s="5" t="inlineStr">
         <is>
-          <t>Potsdam-Mittelmark</t>
+          <t>Ostprignitz-Ruppin</t>
         </is>
       </c>
       <c r="C340" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_155</t>
+          <t>A_KREIS_154</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="341">
       <c r="A341" s="4">
-        <v>12070</v>
+        <v>12069</v>
       </c>
       <c r="B341" s="5" t="inlineStr">
         <is>
-          <t>Prignitz</t>
+          <t>Potsdam-Mittelmark</t>
         </is>
       </c>
       <c r="C341" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_156</t>
+          <t>A_KREIS_155</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="342">
       <c r="A342" s="4">
-        <v>12071</v>
+        <v>12070</v>
       </c>
       <c r="B342" s="5" t="inlineStr">
         <is>
-          <t>Spree-Neiße</t>
+          <t>Prignitz</t>
         </is>
       </c>
       <c r="C342" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_157</t>
+          <t>A_KREIS_156</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="343">
       <c r="A343" s="4">
-        <v>12072</v>
+        <v>12071</v>
       </c>
       <c r="B343" s="5" t="inlineStr">
         <is>
-          <t>Teltow-Fläming</t>
+          <t>Spree-Neiße</t>
         </is>
       </c>
       <c r="C343" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_158</t>
+          <t>A_KREIS_157</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="344">
       <c r="A344" s="4">
-        <v>12073</v>
+        <v>12072</v>
       </c>
       <c r="B344" s="5" t="inlineStr">
         <is>
-          <t>Uckermark</t>
+          <t>Teltow-Fläming</t>
         </is>
       </c>
       <c r="C344" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_159</t>
+          <t>A_KREIS_158</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="345">
       <c r="A345" s="4">
-        <v>13003</v>
+        <v>12073</v>
       </c>
       <c r="B345" s="5" t="inlineStr">
         <is>
-          <t>Rostock, Stadt</t>
+          <t>Uckermark</t>
         </is>
       </c>
       <c r="C345" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_189</t>
+          <t>A_KREIS_159</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="346">
       <c r="A346" s="4">
-        <v>13004</v>
+        <v>13003</v>
       </c>
       <c r="B346" s="5" t="inlineStr">
         <is>
-          <t>Schwerin, Stadt</t>
+          <t>Rostock, Stadt</t>
         </is>
       </c>
       <c r="C346" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_190</t>
+          <t>A_KREIS_189</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="347">
       <c r="A347" s="4">
-        <v>13071</v>
+        <v>13004</v>
       </c>
       <c r="B347" s="5" t="inlineStr">
         <is>
-          <t>Mecklenburgische Seenplatte</t>
+          <t>Schwerin, Stadt</t>
         </is>
       </c>
       <c r="C347" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_191</t>
+          <t>A_KREIS_190</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="348">
       <c r="A348" s="4">
-        <v>13072</v>
+        <v>13071</v>
       </c>
       <c r="B348" s="5" t="inlineStr">
         <is>
-          <t>Rostock</t>
+          <t>Mecklenburgische Seenplatte</t>
         </is>
       </c>
       <c r="C348" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_192</t>
+          <t>A_KREIS_191</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="349">
       <c r="A349" s="4">
-        <v>13073</v>
+        <v>13072</v>
       </c>
       <c r="B349" s="5" t="inlineStr">
         <is>
-          <t>Vorpommern-Rügen</t>
+          <t>Rostock</t>
         </is>
       </c>
       <c r="C349" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_193</t>
+          <t>A_KREIS_192</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="350">
       <c r="A350" s="4">
-        <v>13074</v>
+        <v>13073</v>
       </c>
       <c r="B350" s="5" t="inlineStr">
         <is>
-          <t>Nordwestmecklenburg</t>
+          <t>Vorpommern-Rügen</t>
         </is>
       </c>
       <c r="C350" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_194</t>
+          <t>A_KREIS_193</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="351">
       <c r="A351" s="4">
-        <v>13075</v>
+        <v>13074</v>
       </c>
       <c r="B351" s="5" t="inlineStr">
         <is>
-          <t>Vorpommern-Greifswald</t>
+          <t>Nordwestmecklenburg</t>
         </is>
       </c>
       <c r="C351" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_195</t>
+          <t>A_KREIS_194</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="352">
       <c r="A352" s="4">
-        <v>13076</v>
+        <v>13075</v>
       </c>
       <c r="B352" s="5" t="inlineStr">
         <is>
-          <t>Ludwigslust-Parchim</t>
+          <t>Vorpommern-Greifswald</t>
         </is>
       </c>
       <c r="C352" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_196</t>
+          <t>A_KREIS_195</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="353">
       <c r="A353" s="4">
-        <v>14511</v>
+        <v>13076</v>
       </c>
       <c r="B353" s="5" t="inlineStr">
         <is>
-          <t>Chemnitz, Stadt</t>
+          <t>Ludwigslust-Parchim</t>
         </is>
       </c>
       <c r="C353" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_338</t>
+          <t>A_KREIS_196</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="354">
       <c r="A354" s="4">
-        <v>14521</v>
+        <v>14511</v>
       </c>
       <c r="B354" s="5" t="inlineStr">
         <is>
-          <t>Erzgebirgskreis</t>
+          <t>Chemnitz, Stadt</t>
         </is>
       </c>
       <c r="C354" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_339</t>
+          <t>A_KREIS_338</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="355">
       <c r="A355" s="4">
-        <v>14522</v>
+        <v>14521</v>
       </c>
       <c r="B355" s="5" t="inlineStr">
         <is>
-          <t>Mittelsachsen</t>
+          <t>Erzgebirgskreis</t>
         </is>
       </c>
       <c r="C355" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_340</t>
+          <t>A_KREIS_339</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="356">
       <c r="A356" s="4">
-        <v>14523</v>
+        <v>14522</v>
       </c>
       <c r="B356" s="5" t="inlineStr">
         <is>
-          <t>Vogtlandkreis</t>
+          <t>Mittelsachsen</t>
         </is>
       </c>
       <c r="C356" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_341</t>
+          <t>A_KREIS_340</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="357">
       <c r="A357" s="4">
-        <v>14524</v>
+        <v>14523</v>
       </c>
       <c r="B357" s="5" t="inlineStr">
         <is>
-          <t>Zwickau</t>
+          <t>Vogtlandkreis</t>
         </is>
       </c>
       <c r="C357" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_342</t>
+          <t>A_KREIS_341</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="358">
       <c r="A358" s="4">
-        <v>14612</v>
+        <v>14524</v>
       </c>
       <c r="B358" s="5" t="inlineStr">
         <is>
-          <t>Dresden, Stadt</t>
+          <t>Zwickau</t>
         </is>
       </c>
       <c r="C358" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_343</t>
+          <t>A_KREIS_342</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="359">
       <c r="A359" s="4">
-        <v>14625</v>
+        <v>14612</v>
       </c>
       <c r="B359" s="5" t="inlineStr">
         <is>
-          <t>Bautzen</t>
+          <t>Dresden, Stadt</t>
         </is>
       </c>
       <c r="C359" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_344</t>
+          <t>A_KREIS_343</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="360">
       <c r="A360" s="4">
-        <v>14626</v>
+        <v>14625</v>
       </c>
       <c r="B360" s="5" t="inlineStr">
         <is>
-          <t>Görlitz</t>
+          <t>Bautzen</t>
         </is>
       </c>
       <c r="C360" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_345</t>
+          <t>A_KREIS_344</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="361">
       <c r="A361" s="4">
-        <v>14627</v>
+        <v>14626</v>
       </c>
       <c r="B361" s="5" t="inlineStr">
         <is>
-          <t>Meißen</t>
+          <t>Görlitz</t>
         </is>
       </c>
       <c r="C361" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_346</t>
+          <t>A_KREIS_345</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="362">
       <c r="A362" s="4">
-        <v>14628</v>
+        <v>14627</v>
       </c>
       <c r="B362" s="5" t="inlineStr">
         <is>
-          <t>Sächsische Schweiz-Osterzgebirge</t>
+          <t>Meißen</t>
         </is>
       </c>
       <c r="C362" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_347</t>
+          <t>A_KREIS_346</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="363">
       <c r="A363" s="4">
-        <v>14713</v>
+        <v>14628</v>
       </c>
       <c r="B363" s="5" t="inlineStr">
         <is>
-          <t>Leipzig, Stadt</t>
+          <t>Sächsische Schweiz-Osterzgebirge</t>
         </is>
       </c>
       <c r="C363" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_348</t>
+          <t>A_KREIS_347</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="364">
       <c r="A364" s="4">
-        <v>14729</v>
+        <v>14713</v>
       </c>
       <c r="B364" s="5" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Leipzig, Stadt</t>
         </is>
       </c>
       <c r="C364" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_349</t>
+          <t>A_KREIS_348</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="365">
       <c r="A365" s="4">
-        <v>14730</v>
+        <v>14729</v>
       </c>
       <c r="B365" s="5" t="inlineStr">
         <is>
-          <t>Nordsachsen</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="C365" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_350</t>
+          <t>A_KREIS_349</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="366">
       <c r="A366" s="4">
-        <v>15001</v>
+        <v>14730</v>
       </c>
       <c r="B366" s="5" t="inlineStr">
         <is>
-          <t>Dessau-Roßlau, Stadt</t>
+          <t>Nordsachsen</t>
         </is>
       </c>
       <c r="C366" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_351</t>
+          <t>A_KREIS_350</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="367">
       <c r="A367" s="4">
-        <v>15002</v>
+        <v>15001</v>
       </c>
       <c r="B367" s="5" t="inlineStr">
         <is>
-          <t>Halle (Saale), Stadt</t>
+          <t>Dessau-Roßlau, Stadt</t>
         </is>
       </c>
       <c r="C367" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_352</t>
+          <t>A_KREIS_351</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="368">
       <c r="A368" s="4">
-        <v>15003</v>
+        <v>15002</v>
       </c>
       <c r="B368" s="5" t="inlineStr">
         <is>
-          <t>Magdeburg, Stadt</t>
+          <t>Halle (Saale), Stadt</t>
         </is>
       </c>
       <c r="C368" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_353</t>
+          <t>A_KREIS_352</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="369">
       <c r="A369" s="4">
-        <v>15081</v>
+        <v>15003</v>
       </c>
       <c r="B369" s="5" t="inlineStr">
         <is>
-          <t>Altmarkkreis Salzwedel</t>
+          <t>Magdeburg, Stadt</t>
         </is>
       </c>
       <c r="C369" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_354</t>
+          <t>A_KREIS_353</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="370">
       <c r="A370" s="4">
-        <v>15082</v>
+        <v>15081</v>
       </c>
       <c r="B370" s="5" t="inlineStr">
         <is>
-          <t>Anhalt-Bitterfeld</t>
+          <t>Altmarkkreis Salzwedel</t>
         </is>
       </c>
       <c r="C370" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_355</t>
+          <t>A_KREIS_354</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="371">
       <c r="A371" s="4">
-        <v>15083</v>
+        <v>15082</v>
       </c>
       <c r="B371" s="5" t="inlineStr">
         <is>
-          <t>Börde</t>
+          <t>Anhalt-Bitterfeld</t>
         </is>
       </c>
       <c r="C371" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_356</t>
+          <t>A_KREIS_355</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="372">
       <c r="A372" s="4">
-        <v>15084</v>
+        <v>15083</v>
       </c>
       <c r="B372" s="5" t="inlineStr">
         <is>
-          <t>Burgenlandkreis</t>
+          <t>Börde</t>
         </is>
       </c>
       <c r="C372" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_357</t>
+          <t>A_KREIS_356</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="373">
       <c r="A373" s="4">
-        <v>15085</v>
+        <v>15084</v>
       </c>
       <c r="B373" s="5" t="inlineStr">
         <is>
-          <t>Harz</t>
+          <t>Burgenlandkreis</t>
         </is>
       </c>
       <c r="C373" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_358</t>
+          <t>A_KREIS_357</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="374">
       <c r="A374" s="4">
-        <v>15086</v>
+        <v>15085</v>
       </c>
       <c r="B374" s="5" t="inlineStr">
         <is>
-          <t>Jerichower Land</t>
+          <t>Harz</t>
         </is>
       </c>
       <c r="C374" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_359</t>
+          <t>A_KREIS_358</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="375">
       <c r="A375" s="4">
-        <v>15087</v>
+        <v>15086</v>
       </c>
       <c r="B375" s="5" t="inlineStr">
         <is>
-          <t>Mansfeld-Südharz</t>
+          <t>Jerichower Land</t>
         </is>
       </c>
       <c r="C375" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_360</t>
+          <t>A_KREIS_359</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="376">
       <c r="A376" s="4">
-        <v>15088</v>
+        <v>15087</v>
       </c>
       <c r="B376" s="5" t="inlineStr">
         <is>
-          <t>Saalekreis</t>
+          <t>Mansfeld-Südharz</t>
         </is>
       </c>
       <c r="C376" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_361</t>
+          <t>A_KREIS_360</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="377">
       <c r="A377" s="4">
-        <v>15089</v>
+        <v>15088</v>
       </c>
       <c r="B377" s="5" t="inlineStr">
         <is>
-          <t>Salzlandkreis</t>
+          <t>Saalekreis</t>
         </is>
       </c>
       <c r="C377" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_362</t>
+          <t>A_KREIS_361</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="378">
       <c r="A378" s="4">
-        <v>15090</v>
+        <v>15089</v>
       </c>
       <c r="B378" s="5" t="inlineStr">
         <is>
-          <t>Stendal</t>
+          <t>Salzlandkreis</t>
         </is>
       </c>
       <c r="C378" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_363</t>
+          <t>A_KREIS_362</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="379">
       <c r="A379" s="4">
-        <v>15091</v>
+        <v>15090</v>
       </c>
       <c r="B379" s="5" t="inlineStr">
         <is>
-          <t>Wittenberg</t>
+          <t>Stendal</t>
         </is>
       </c>
       <c r="C379" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_364</t>
+          <t>A_KREIS_363</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="380">
       <c r="A380" s="4">
-        <v>16051</v>
+        <v>15091</v>
       </c>
       <c r="B380" s="5" t="inlineStr">
         <is>
-          <t>Erfurt, Stadt</t>
+          <t>Wittenberg</t>
         </is>
       </c>
       <c r="C380" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_380</t>
+          <t>A_KREIS_364</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="381">
       <c r="A381" s="4">
-        <v>16052</v>
+        <v>16051</v>
       </c>
       <c r="B381" s="5" t="inlineStr">
         <is>
-          <t>Gera, Stadt</t>
+          <t>Erfurt, Stadt</t>
         </is>
       </c>
       <c r="C381" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_381</t>
+          <t>A_KREIS_380</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="382">
       <c r="A382" s="4">
-        <v>16053</v>
+        <v>16052</v>
       </c>
       <c r="B382" s="5" t="inlineStr">
         <is>
-          <t>Jena, Stadt</t>
+          <t>Gera, Stadt</t>
         </is>
       </c>
       <c r="C382" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_382</t>
+          <t>A_KREIS_381</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="383">
       <c r="A383" s="4">
-        <v>16054</v>
+        <v>16053</v>
       </c>
       <c r="B383" s="5" t="inlineStr">
         <is>
-          <t>Suhl, Stadt</t>
+          <t>Jena, Stadt</t>
         </is>
       </c>
       <c r="C383" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_383</t>
+          <t>A_KREIS_382</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="384">
       <c r="A384" s="4">
-        <v>16055</v>
+        <v>16054</v>
       </c>
       <c r="B384" s="5" t="inlineStr">
         <is>
-          <t>Weimar, Stadt</t>
+          <t>Suhl, Stadt</t>
         </is>
       </c>
       <c r="C384" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_384</t>
+          <t>A_KREIS_383</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="385">
       <c r="A385" s="4">
-        <v>16056</v>
+        <v>16055</v>
       </c>
       <c r="B385" s="5" t="inlineStr">
         <is>
-          <t>Eisenach, Stadt</t>
+          <t>Weimar, Stadt</t>
         </is>
       </c>
       <c r="C385" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_385</t>
+          <t>A_KREIS_384</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="386">
       <c r="A386" s="4">
-        <v>16061</v>
+        <v>16056</v>
       </c>
       <c r="B386" s="5" t="inlineStr">
         <is>
-          <t>Eichsfeld</t>
+          <t>Eisenach, Stadt</t>
         </is>
       </c>
       <c r="C386" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_386</t>
+          <t>A_KREIS_385</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="387">
       <c r="A387" s="4">
-        <v>16062</v>
+        <v>16061</v>
       </c>
       <c r="B387" s="5" t="inlineStr">
         <is>
-          <t>Nordhausen</t>
+          <t>Eichsfeld</t>
         </is>
       </c>
       <c r="C387" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_387</t>
+          <t>A_KREIS_386</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="388">
       <c r="A388" s="4">
-        <v>16063</v>
+        <v>16062</v>
       </c>
       <c r="B388" s="5" t="inlineStr">
         <is>
-          <t>Wartburgkreis</t>
+          <t>Nordhausen</t>
         </is>
       </c>
       <c r="C388" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_388</t>
+          <t>A_KREIS_387</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="389">
       <c r="A389" s="4">
-        <v>16064</v>
+        <v>16063</v>
       </c>
       <c r="B389" s="5" t="inlineStr">
         <is>
-          <t>Unstrut-Hainich-Kreis</t>
+          <t>Wartburgkreis</t>
         </is>
       </c>
       <c r="C389" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_389</t>
+          <t>A_KREIS_388</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="390">
       <c r="A390" s="4">
-        <v>16065</v>
+        <v>16064</v>
       </c>
       <c r="B390" s="5" t="inlineStr">
         <is>
-          <t>Kyffhäuserkreis</t>
+          <t>Unstrut-Hainich-Kreis</t>
         </is>
       </c>
       <c r="C390" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_390</t>
+          <t>A_KREIS_389</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="391">
       <c r="A391" s="4">
-        <v>16066</v>
+        <v>16065</v>
       </c>
       <c r="B391" s="5" t="inlineStr">
         <is>
-          <t>Schmalkalden-Meiningen</t>
+          <t>Kyffhäuserkreis</t>
         </is>
       </c>
       <c r="C391" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_391</t>
+          <t>A_KREIS_390</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="392">
       <c r="A392" s="4">
-        <v>16067</v>
+        <v>16066</v>
       </c>
       <c r="B392" s="5" t="inlineStr">
         <is>
-          <t>Gotha</t>
+          <t>Schmalkalden-Meiningen</t>
         </is>
       </c>
       <c r="C392" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_392</t>
+          <t>A_KREIS_391</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="393">
       <c r="A393" s="4">
-        <v>16068</v>
+        <v>16067</v>
       </c>
       <c r="B393" s="5" t="inlineStr">
         <is>
-          <t>Sömmerda</t>
+          <t>Gotha</t>
         </is>
       </c>
       <c r="C393" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_393</t>
+          <t>A_KREIS_392</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="394">
       <c r="A394" s="4">
-        <v>16069</v>
+        <v>16068</v>
       </c>
       <c r="B394" s="5" t="inlineStr">
         <is>
-          <t>Hildburghausen</t>
+          <t>Sömmerda</t>
         </is>
       </c>
       <c r="C394" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_394</t>
+          <t>A_KREIS_393</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="395">
       <c r="A395" s="4">
-        <v>16070</v>
+        <v>16069</v>
       </c>
       <c r="B395" s="5" t="inlineStr">
         <is>
-          <t>Ilm-Kreis</t>
+          <t>Hildburghausen</t>
         </is>
       </c>
       <c r="C395" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_395</t>
+          <t>A_KREIS_394</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="396">
       <c r="A396" s="4">
-        <v>16071</v>
+        <v>16070</v>
       </c>
       <c r="B396" s="5" t="inlineStr">
         <is>
-          <t>Weimarer Land</t>
+          <t>Ilm-Kreis</t>
         </is>
       </c>
       <c r="C396" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_396</t>
+          <t>A_KREIS_395</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="397">
       <c r="A397" s="4">
-        <v>16072</v>
+        <v>16071</v>
       </c>
       <c r="B397" s="5" t="inlineStr">
         <is>
-          <t>Sonneberg</t>
+          <t>Weimarer Land</t>
         </is>
       </c>
       <c r="C397" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_397</t>
+          <t>A_KREIS_396</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="398">
       <c r="A398" s="4">
-        <v>16073</v>
+        <v>16072</v>
       </c>
       <c r="B398" s="5" t="inlineStr">
         <is>
-          <t>Saalfeld-Rudolstadt</t>
+          <t>Sonneberg</t>
         </is>
       </c>
       <c r="C398" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_398</t>
+          <t>A_KREIS_397</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="399">
       <c r="A399" s="4">
-        <v>16074</v>
+        <v>16073</v>
       </c>
       <c r="B399" s="5" t="inlineStr">
         <is>
-          <t>Saale-Holzland-Kreis</t>
+          <t>Saalfeld-Rudolstadt</t>
         </is>
       </c>
       <c r="C399" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_399</t>
+          <t>A_KREIS_398</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="400">
       <c r="A400" s="4">
-        <v>16075</v>
+        <v>16074</v>
       </c>
       <c r="B400" s="5" t="inlineStr">
         <is>
-          <t>Saale-Orla-Kreis</t>
+          <t>Saale-Holzland-Kreis</t>
         </is>
       </c>
       <c r="C400" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_400</t>
+          <t>A_KREIS_399</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="401">
       <c r="A401" s="4">
-        <v>16076</v>
+        <v>16075</v>
       </c>
       <c r="B401" s="5" t="inlineStr">
         <is>
-          <t>Greiz</t>
+          <t>Saale-Orla-Kreis</t>
         </is>
       </c>
       <c r="C401" s="5" t="inlineStr">
         <is>
-          <t>A_KREIS_401</t>
+          <t>A_KREIS_400</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="402">
       <c r="A402" s="4">
+        <v>16076</v>
+      </c>
+      <c r="B402" s="5" t="inlineStr">
+        <is>
+          <t>Greiz</t>
+        </is>
+      </c>
+      <c r="C402" s="5" t="inlineStr">
+        <is>
+          <t>A_KREIS_401</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="403">
+      <c r="A403" s="4">
         <v>16077</v>
       </c>
-      <c r="B402" s="5" t="inlineStr">
+      <c r="B403" s="5" t="inlineStr">
         <is>
           <t>Altenburger Land</t>
         </is>
       </c>
-      <c r="C402" s="5" t="inlineStr">
+      <c r="C403" s="5" t="inlineStr">
         <is>
           <t>A_KREIS_402</t>
         </is>
